--- a/isp_status.xlsx
+++ b/isp_status.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Node\MERN-Stack\Exp-Tracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
-  </bookViews>
   <sheets>
     <sheet name="ISP Status" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,14 +72,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -393,119 +396,3060 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="2" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="3" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="4" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="5" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="8" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="9" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="11" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="12" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="14" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="15" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="16" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>branchId</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>host</v>
+      </c>
+      <c r="D1" t="str">
+        <v>isp1Name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>isp1Status</v>
+      </c>
+      <c r="F1" t="str">
+        <v>isp2Name</v>
+      </c>
+      <c r="G1" t="str">
+        <v>isp2Status</v>
+      </c>
+      <c r="H1" t="str">
+        <v>error</v>
+      </c>
+      <c r="I1" t="str">
+        <v>routerType</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Agrabad</v>
+      </c>
+      <c r="C2" t="str">
+        <v>192.168.129.1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E2" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F2" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G2" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H2" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I2" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Barisal</v>
+      </c>
+      <c r="C3" t="str">
+        <v>192.168.241.1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E3" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F3" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G3" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H3" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I3" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Khulna</v>
+      </c>
+      <c r="C4" t="str">
+        <v>192.168.225.1</v>
+      </c>
+      <c r="D4" t="str">
+        <v xml:space="preserve">BDCOM </v>
+      </c>
+      <c r="E4" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F4" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G4" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I4" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Moulvibazar, Dhaka</v>
+      </c>
+      <c r="C5" t="str">
+        <v>192.168.12.1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>KS</v>
+      </c>
+      <c r="E5" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F5" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G5" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H5" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I5" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Motijheel</v>
+      </c>
+      <c r="C6" t="str">
+        <v>192.168.11.1</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E6" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F6" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G6" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H6" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I6" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Bogra</v>
+      </c>
+      <c r="C7" t="str">
+        <v>192.168.162.1</v>
+      </c>
+      <c r="D7" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E7" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F7" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G7" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H7" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I7" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="str">
+        <v>VIP Road</v>
+      </c>
+      <c r="C8" t="str">
+        <v>192.168.14.1</v>
+      </c>
+      <c r="D8" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E8" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F8" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G8" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H8" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I8" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Rajshahi</v>
+      </c>
+      <c r="C9" t="str">
+        <v>192.168.161.1</v>
+      </c>
+      <c r="D9" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E9" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F9" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G9" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H9" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I9" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Laldighirpar</v>
+      </c>
+      <c r="C10" t="str">
+        <v>192.168.193.1</v>
+      </c>
+      <c r="D10" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F10" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G10" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H10" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I10" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Khatungonj</v>
+      </c>
+      <c r="C11" t="str">
+        <v>192.168.130.1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E11" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F11" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G11" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H11" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I11" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Corporate</v>
+      </c>
+      <c r="C12" t="str">
+        <v>192.168.15.1</v>
+      </c>
+      <c r="D12" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E12" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F12" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G12" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H12" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I12" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="str">
+        <v>New Elephant Road</v>
+      </c>
+      <c r="C13" t="str">
+        <v>192.168.16.1</v>
+      </c>
+      <c r="D13" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E13" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Alap</v>
+      </c>
+      <c r="G13" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H13" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I13" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Benapole</v>
+      </c>
+      <c r="C14" t="str">
+        <v>192.168.227.1</v>
+      </c>
+      <c r="D14" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E14" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F14" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G14" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H14" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I14" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Satkhira</v>
+      </c>
+      <c r="C15" t="str">
+        <v>192.168.226.1</v>
+      </c>
+      <c r="D15" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E15" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F15" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G15" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H15" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I15" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Nawabpur</v>
+      </c>
+      <c r="C16" t="str">
+        <v>192.168.18.1</v>
+      </c>
+      <c r="D16" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E16" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F16" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G16" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H16" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I16" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Uttara</v>
+      </c>
+      <c r="C17" t="str">
+        <v>192.168.17.1</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Bdcom</v>
+      </c>
+      <c r="E17" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Alap</v>
+      </c>
+      <c r="G17" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H17" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I17" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Jublee Road</v>
+      </c>
+      <c r="C18" t="str">
+        <v>192.168.131.1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E18" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F18" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G18" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H18" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I18" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Zindabazar</v>
+      </c>
+      <c r="C19" t="str">
+        <v>192.168.194.1</v>
+      </c>
+      <c r="D19" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E19" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F19" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G19" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H19" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I19" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Banani</v>
+      </c>
+      <c r="C20" t="str">
+        <v>192.168.19.1</v>
+      </c>
+      <c r="D20" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E20" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F20" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G20" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H20" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I20" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Mymensingh</v>
+      </c>
+      <c r="C21" t="str">
+        <v>192.168.32.1</v>
+      </c>
+      <c r="D21" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E21" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F21" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G21" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H21" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I21" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Mirpur</v>
+      </c>
+      <c r="C22" t="str">
+        <v>192.168.20.1</v>
+      </c>
+      <c r="D22" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E22" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F22" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G22" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H22" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I22" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="str">
+        <v>North South Road</v>
+      </c>
+      <c r="C23" t="str">
+        <v>192.168.13.1</v>
+      </c>
+      <c r="D23" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E23" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F23" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G23" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H23" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I23" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Mouchak</v>
+      </c>
+      <c r="C24" t="str">
+        <v>192.168.22.1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E24" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F24" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G24" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H24" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I24" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Sayedpur</v>
+      </c>
+      <c r="C25" t="str">
+        <v>192.168.163.1</v>
+      </c>
+      <c r="D25" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E25" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F25" t="str">
+        <v>AGNI</v>
+      </c>
+      <c r="G25" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H25" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I25" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Moulvibazar, Sylhet</v>
+      </c>
+      <c r="C26" t="str">
+        <v>192.168.196.1</v>
+      </c>
+      <c r="D26" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E26" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F26" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G26" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H26" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I26" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>O.R.Nizam</v>
+      </c>
+      <c r="C27" t="str">
+        <v>192.168.132.1</v>
+      </c>
+      <c r="D27" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E27" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F27" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G27" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H27" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I27" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Chowmohoni</v>
+      </c>
+      <c r="C28" t="str">
+        <v>192.168.138.1</v>
+      </c>
+      <c r="D28" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E28" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F28" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G28" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H28" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I28" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Comilla</v>
+      </c>
+      <c r="C29" t="str">
+        <v>192.168.134.1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E29" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F29" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G29" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H29" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I29" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Jessore</v>
+      </c>
+      <c r="C30" t="str">
+        <v>192.168.228.1</v>
+      </c>
+      <c r="D30" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E30" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F30" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G30" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H30" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I30" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Dhanmondi</v>
+      </c>
+      <c r="C31" t="str">
+        <v>192.168.23.1</v>
+      </c>
+      <c r="D31" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E31" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F31" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G31" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H31" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I31" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Madhabdi</v>
+      </c>
+      <c r="C32" t="str">
+        <v>192.168.27.1</v>
+      </c>
+      <c r="D32" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E32" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F32" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G32" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H32" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I32" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Mohadevpur</v>
+      </c>
+      <c r="C33" t="str">
+        <v>192.168.164.1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E33" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F33" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G33" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H33" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I33" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Sreemangal</v>
+      </c>
+      <c r="C34" t="str">
+        <v>192.168.197.1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E34" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F34" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G34" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H34" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I34" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Pagla</v>
+      </c>
+      <c r="C35" t="str">
+        <v>192.168.29.1</v>
+      </c>
+      <c r="D35" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="E35" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F35" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G35" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H35" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I35" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Narayangonj</v>
+      </c>
+      <c r="C36" t="str">
+        <v>192.168.28.1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="E36" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F36" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G36" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H36" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I36" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Mohammadpur</v>
+      </c>
+      <c r="C37" t="str">
+        <v>192.168.24.1</v>
+      </c>
+      <c r="D37" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E37" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F37" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G37" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H37" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I37" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Companigonj</v>
+      </c>
+      <c r="C38" t="str">
+        <v>192.168.133.1</v>
+      </c>
+      <c r="D38" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E38" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F38" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G38" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H38" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I38" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Joydebpur</v>
+      </c>
+      <c r="C39" t="str">
+        <v>192.168.31.1</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="H39" t="str">
+        <v>connect ECONNREFUSED 192.168.31.1:22</v>
+      </c>
+      <c r="I39" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Kapasia</v>
+      </c>
+      <c r="C40" t="str">
+        <v>192.168.30.1</v>
+      </c>
+      <c r="D40" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E40" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F40" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G40" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H40" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I40" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Dilkusha</v>
+      </c>
+      <c r="C41" t="str">
+        <v>192.168.26.1</v>
+      </c>
+      <c r="D41" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E41" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F41" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G41" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H41" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I41" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Beanibazar</v>
+      </c>
+      <c r="C42" t="str">
+        <v>192.168.195.1</v>
+      </c>
+      <c r="D42" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E42" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F42" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G42" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H42" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I42" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Islampur</v>
+      </c>
+      <c r="C43" t="str">
+        <v>192.168.25.1</v>
+      </c>
+      <c r="D43" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E43" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F43" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G43" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H43" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I43" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Gallai</v>
+      </c>
+      <c r="C44" t="str">
+        <v>192.168.135.1</v>
+      </c>
+      <c r="D44" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E44" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F44" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G44" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H44" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I44" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Feni</v>
+      </c>
+      <c r="C45" t="str">
+        <v>192.168.136.1</v>
+      </c>
+      <c r="D45" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E45" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F45" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G45" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H45" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I45" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Pragati_sarani</v>
+      </c>
+      <c r="C46" t="str">
+        <v>192.168.21.1</v>
+      </c>
+      <c r="D46" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E46" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F46" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G46" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H46" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I46" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Feni</v>
+      </c>
+      <c r="C47" t="str">
+        <v>192.168.136.1</v>
+      </c>
+      <c r="D47" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E47" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F47" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G47" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H47" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I47" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Coxsbazar</v>
+      </c>
+      <c r="C48" t="str">
+        <v>192.168.137.1</v>
+      </c>
+      <c r="D48" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E48" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F48" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G48" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H48" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I48" t="str">
+        <v>mikrotik</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Hathazari</v>
+      </c>
+      <c r="C49" t="str">
+        <v>192.168.139.1</v>
+      </c>
+      <c r="D49" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E49" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F49" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G49" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H49" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I49" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Amborkhana</v>
+      </c>
+      <c r="C50" t="str">
+        <v>192.168.198.1</v>
+      </c>
+      <c r="D50" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E50" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F50" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G50" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H50" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I50" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Konapara</v>
+      </c>
+      <c r="C51" t="str">
+        <v>192.168.33.1</v>
+      </c>
+      <c r="D51" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E51" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F51" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G51" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H51" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I51" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Gulshan</v>
+      </c>
+      <c r="C52" t="str">
+        <v>192.168.36.1</v>
+      </c>
+      <c r="D52" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E52" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F52" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G52" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H52" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I52" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Jatrabari</v>
+      </c>
+      <c r="C53" t="str">
+        <v>192.168.34.1</v>
+      </c>
+      <c r="D53" t="str">
+        <v>KS</v>
+      </c>
+      <c r="E53" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F53" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G53" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H53" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I53" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Bhairab</v>
+      </c>
+      <c r="C54" t="str">
+        <v>192.168.35.1</v>
+      </c>
+      <c r="D54" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E54" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F54" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G54" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H54" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I54" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Jhalokathi</v>
+      </c>
+      <c r="C55" t="str">
+        <v>192.168.242.1</v>
+      </c>
+      <c r="D55" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E55" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F55" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G55" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H55" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I55" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Chuknagar</v>
+      </c>
+      <c r="C56" t="str">
+        <v>192.168.230.1</v>
+      </c>
+      <c r="D56" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="E56" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F56" t="str">
+        <v>A.D.N</v>
+      </c>
+      <c r="G56" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H56" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I56" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Mongla</v>
+      </c>
+      <c r="C57" t="str">
+        <v>192.168.229.1</v>
+      </c>
+      <c r="D57" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E57" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F57" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G57" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H57" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I57" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Keranigonj</v>
+      </c>
+      <c r="C58" t="str">
+        <v>192.168.37.1</v>
+      </c>
+      <c r="D58" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E58" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F58" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G58" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H58" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I58" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Nandipara</v>
+      </c>
+      <c r="C59" t="str">
+        <v>192.168.40.1</v>
+      </c>
+      <c r="D59" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E59" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F59" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G59" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H59" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I59" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Hazaribagh</v>
+      </c>
+      <c r="C60" t="str">
+        <v>192.168.38.1</v>
+      </c>
+      <c r="D60" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E60" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F60" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G60" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H60" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I60" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Manda</v>
+      </c>
+      <c r="C61" t="str">
+        <v>192.168.39.1</v>
+      </c>
+      <c r="D61" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E61" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F61" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G61" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H61" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I61" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Patherhat</v>
+      </c>
+      <c r="C62" t="str">
+        <v>192.168.140.1</v>
+      </c>
+      <c r="D62" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E62" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F62" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G62" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H62" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I62" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Mothbaria</v>
+      </c>
+      <c r="C63" t="str">
+        <v>192.168.243.1</v>
+      </c>
+      <c r="D63" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E63" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F63" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G63" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H63" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I63" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="str">
+        <v>B.Baria</v>
+      </c>
+      <c r="C64" t="str">
+        <v>192.168.141.1</v>
+      </c>
+      <c r="D64" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E64" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F64" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G64" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H64" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I64" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Tontor bazar</v>
+      </c>
+      <c r="C65" t="str">
+        <v>192.168.142.1</v>
+      </c>
+      <c r="D65" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E65" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F65" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G65" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H65" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I65" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Bodorgonj</v>
+      </c>
+      <c r="C66" t="str">
+        <v>192.168.165.1</v>
+      </c>
+      <c r="D66" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E66" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F66" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G66" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H66" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I66" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Abdullahpur</v>
+      </c>
+      <c r="C67" t="str">
+        <v>192.168.43.1</v>
+      </c>
+      <c r="D67" t="str">
+        <v>IOL</v>
+      </c>
+      <c r="E67" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F67" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G67" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H67" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I67" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>72</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Bondor</v>
+      </c>
+      <c r="C68" t="str">
+        <v>192.168.44.1</v>
+      </c>
+      <c r="D68" t="str">
+        <v>PCL</v>
+      </c>
+      <c r="E68" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F68" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G68" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H68" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I68" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Akhaura</v>
+      </c>
+      <c r="C69" t="str">
+        <v>192.168.143.1</v>
+      </c>
+      <c r="D69" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E69" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F69" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G69" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H69" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I69" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Hemayatpur</v>
+      </c>
+      <c r="C70" t="str">
+        <v>192.168.41.1</v>
+      </c>
+      <c r="D70" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E70" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F70" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G70" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H70" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I70" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Kamrangirchar</v>
+      </c>
+      <c r="C71" t="str">
+        <v>192.168.42.1</v>
+      </c>
+      <c r="D71" t="str">
+        <v>KS</v>
+      </c>
+      <c r="E71" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F71" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G71" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H71" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I71" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Madhabpur</v>
+      </c>
+      <c r="C72" t="str">
+        <v>192.168.199.1</v>
+      </c>
+      <c r="D72" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E72" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F72" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G72" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H72" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I72" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Bhola</v>
+      </c>
+      <c r="C73" t="str">
+        <v>192.168.244.1</v>
+      </c>
+      <c r="D73" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="E73" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F73" t="str">
+        <v>A.D.N</v>
+      </c>
+      <c r="G73" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H73" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I73" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Khilkhet</v>
+      </c>
+      <c r="C74" t="str">
+        <v>192.168.45.1</v>
+      </c>
+      <c r="D74" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E74" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F74" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G74" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H74" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I74" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Dinajpur</v>
+      </c>
+      <c r="C75" t="str">
+        <v>192.168.166.1</v>
+      </c>
+      <c r="D75" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E75" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F75" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G75" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H75" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I75" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Mirpur-10</v>
+      </c>
+      <c r="C76" t="str">
+        <v>192.168.46.1</v>
+      </c>
+      <c r="D76" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E76" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F76" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G76" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H76" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I76" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="str">
+        <v>South Jatrabari</v>
+      </c>
+      <c r="C77" t="str">
+        <v>192.168.48.1</v>
+      </c>
+      <c r="D77" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E77" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F77" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G77" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H77" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I77" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Gazipur</v>
+      </c>
+      <c r="C78" t="str">
+        <v>192.168.47.1</v>
+      </c>
+      <c r="D78" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E78" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F78" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G78" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H78" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I78" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Panchdona</v>
+      </c>
+      <c r="C79" t="str">
+        <v>192.168.49.1</v>
+      </c>
+      <c r="D79" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="E79" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F79" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G79" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H79" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I79" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Bashurhat</v>
+      </c>
+      <c r="C80" t="str">
+        <v>192.168.144.1</v>
+      </c>
+      <c r="D80" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E80" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F80" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G80" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H80" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I80" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Shahzadpur</v>
+      </c>
+      <c r="C81" t="str">
+        <v>192.168.167.1</v>
+      </c>
+      <c r="D81" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E81" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F81" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G81" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H81" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I81" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>86</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Natunbazar</v>
+      </c>
+      <c r="C82" t="str">
+        <v>192.168.54.1</v>
+      </c>
+      <c r="D82" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E82" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F82" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G82" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H82" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I82" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Kolatia</v>
+      </c>
+      <c r="C83" t="str">
+        <v>192.168.50.1</v>
+      </c>
+      <c r="D83" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E83" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F83" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G83" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H83" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I83" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Hajigonj</v>
+      </c>
+      <c r="C84" t="str">
+        <v>192.168.145.1</v>
+      </c>
+      <c r="D84" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E84" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F84" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G84" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H84" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I84" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Panthopath</v>
+      </c>
+      <c r="C85" t="str">
+        <v>192.168.52.1</v>
+      </c>
+      <c r="D85" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E85" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F85" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G85" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H85" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I85" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>87</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Kutibazar</v>
+      </c>
+      <c r="C86" t="str">
+        <v>192.168.147.1</v>
+      </c>
+      <c r="D86" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E86" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F86" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G86" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H86" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I86" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Ati Bazar</v>
+      </c>
+      <c r="C87" t="str">
+        <v>192.168.51.1</v>
+      </c>
+      <c r="D87" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E87" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F87" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G87" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H87" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I87" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Dokkhinkhan</v>
+      </c>
+      <c r="C88" t="str">
+        <v>192.168.53.1</v>
+      </c>
+      <c r="D88" t="str">
+        <v/>
+      </c>
+      <c r="E88" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="F88" t="str">
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="H88" t="str">
+        <v>connect ECONNREFUSED 192.168.53.1:22</v>
+      </c>
+      <c r="I88" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>90</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Rahimanogor</v>
+      </c>
+      <c r="C89" t="str">
+        <v>192.168.148.1</v>
+      </c>
+      <c r="D89" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E89" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F89" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G89" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H89" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I89" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Stationroad</v>
+      </c>
+      <c r="C90" t="str">
+        <v>192.168.146.1</v>
+      </c>
+      <c r="D90" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E90" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F90" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G90" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H90" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I90" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Shymoli</v>
+      </c>
+      <c r="C91" t="str">
+        <v>192.168.55.1</v>
+      </c>
+      <c r="D91" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E91" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F91" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G91" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H91" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I91" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Valanagar</v>
+      </c>
+      <c r="C92" t="str">
+        <v>192.168.56.1</v>
+      </c>
+      <c r="D92" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E92" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F92" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G92" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H92" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I92" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Kathgora</v>
+      </c>
+      <c r="C93" t="str">
+        <v>192.168.57.1</v>
+      </c>
+      <c r="D93" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E93" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F93" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G93" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H93" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I93" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Pabna</v>
+      </c>
+      <c r="C94" t="str">
+        <v>192.168.168.1</v>
+      </c>
+      <c r="D94" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E94" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F94" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G94" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H94" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I94" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Ruhitpur</v>
+      </c>
+      <c r="C95" t="str">
+        <v>192.168.59.1</v>
+      </c>
+      <c r="D95" t="str">
+        <v>KS</v>
+      </c>
+      <c r="E95" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F95" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G95" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H95" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I95" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Halishohor</v>
+      </c>
+      <c r="C96" t="str">
+        <v>192.168.149.1</v>
+      </c>
+      <c r="D96" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E96" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F96" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G96" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H96" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I96" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Rangpur</v>
+      </c>
+      <c r="C97" t="str">
+        <v>192.168.169.1</v>
+      </c>
+      <c r="D97" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E97" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F97" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G97" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H97" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I97" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Gollamari</v>
+      </c>
+      <c r="C98" t="str">
+        <v>192.168.231.1</v>
+      </c>
+      <c r="D98" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E98" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F98" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G98" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H98" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I98" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Uttara Janapath</v>
+      </c>
+      <c r="C99" t="str">
+        <v>192.168.58.1</v>
+      </c>
+      <c r="D99" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E99" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F99" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G99" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H99" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I99" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>105</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Rampura</v>
+      </c>
+      <c r="C100" t="str">
+        <v>192.168.63.1</v>
+      </c>
+      <c r="D100" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E100" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F100" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G100" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H100" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I100" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>103</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Bormi</v>
+      </c>
+      <c r="C101" t="str">
+        <v>192.168.62.1</v>
+      </c>
+      <c r="D101" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E101" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F101" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G101" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H101" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I101" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Teknaf</v>
+      </c>
+      <c r="C102" t="str">
+        <v>192.168.150.1</v>
+      </c>
+      <c r="D102" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="E102" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F102" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G102" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H102" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I102" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>104</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Barura</v>
+      </c>
+      <c r="C103" t="str">
+        <v>192.168.151.1</v>
+      </c>
+      <c r="D103" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E103" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F103" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G103" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H103" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I103" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>99</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Noyapur</v>
+      </c>
+      <c r="C104" t="str">
+        <v>192.168.60.1</v>
+      </c>
+      <c r="D104" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E104" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F104" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G104" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H104" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I104" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Rampal</v>
+      </c>
+      <c r="C105" t="str">
+        <v>192.168.61.1</v>
+      </c>
+      <c r="D105" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E105" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F105" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G105" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H105" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I105" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I105"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/isp_status.xlsx
+++ b/isp_status.xlsx
@@ -433,22 +433,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="str">
-        <v>Agrabad</v>
+        <v>Nawabpur</v>
       </c>
       <c r="C2" t="str">
-        <v>192.168.129.1</v>
+        <v>192.168.18.1</v>
       </c>
       <c r="D2" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E2" t="str">
         <v>DOWN</v>
       </c>
       <c r="F2" t="str">
-        <v>ALAP</v>
+        <v>KS</v>
       </c>
       <c r="G2" t="str">
         <v>DOWN</v>
@@ -457,27 +457,27 @@
         <v>OK</v>
       </c>
       <c r="I2" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="str">
-        <v>Barisal</v>
+        <v>Corporate</v>
       </c>
       <c r="C3" t="str">
-        <v>192.168.241.1</v>
+        <v>192.168.15.1</v>
       </c>
       <c r="D3" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E3" t="str">
         <v>DOWN</v>
       </c>
       <c r="F3" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G3" t="str">
         <v>DOWN</v>
@@ -491,22 +491,22 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" t="str">
-        <v>Khulna</v>
+        <v>New Elephant Road</v>
       </c>
       <c r="C4" t="str">
-        <v>192.168.225.1</v>
+        <v>192.168.16.1</v>
       </c>
       <c r="D4" t="str">
-        <v xml:space="preserve">BDCOM </v>
+        <v>ADN</v>
       </c>
       <c r="E4" t="str">
         <v>DOWN</v>
       </c>
       <c r="F4" t="str">
-        <v>ALAP</v>
+        <v>Alap</v>
       </c>
       <c r="G4" t="str">
         <v>DOWN</v>
@@ -520,16 +520,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5" t="str">
-        <v>Moulvibazar, Dhaka</v>
+        <v>VIP Road</v>
       </c>
       <c r="C5" t="str">
-        <v>192.168.12.1</v>
+        <v>192.168.14.1</v>
       </c>
       <c r="D5" t="str">
-        <v>KS</v>
+        <v>BDCOM</v>
       </c>
       <c r="E5" t="str">
         <v>DOWN</v>
@@ -544,7 +544,7 @@
         <v>OK</v>
       </c>
       <c r="I5" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="6">
@@ -578,16 +578,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="str">
-        <v>Bogra</v>
+        <v>Moulvibazar, Dhaka</v>
       </c>
       <c r="C7" t="str">
-        <v>192.168.162.1</v>
+        <v>192.168.12.1</v>
       </c>
       <c r="D7" t="str">
-        <v>BDCOM</v>
+        <v>KS</v>
       </c>
       <c r="E7" t="str">
         <v>DOWN</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B8" t="str">
-        <v>VIP Road</v>
+        <v>Agrabad</v>
       </c>
       <c r="C8" t="str">
-        <v>192.168.14.1</v>
+        <v>192.168.129.1</v>
       </c>
       <c r="D8" t="str">
         <v>BDCOM</v>
@@ -631,7 +631,7 @@
         <v>OK</v>
       </c>
       <c r="I8" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="9">
@@ -694,22 +694,22 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>Khatungonj</v>
+        <v>Barisal</v>
       </c>
       <c r="C11" t="str">
-        <v>192.168.130.1</v>
+        <v>192.168.241.1</v>
       </c>
       <c r="D11" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E11" t="str">
         <v>DOWN</v>
       </c>
       <c r="F11" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="G11" t="str">
         <v>DOWN</v>
@@ -718,21 +718,21 @@
         <v>OK</v>
       </c>
       <c r="I11" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" t="str">
-        <v>Corporate</v>
+        <v>Khulna</v>
       </c>
       <c r="C12" t="str">
-        <v>192.168.15.1</v>
+        <v>192.168.225.1</v>
       </c>
       <c r="D12" t="str">
-        <v>BDCOM</v>
+        <v xml:space="preserve">BDCOM </v>
       </c>
       <c r="E12" t="str">
         <v>DOWN</v>
@@ -747,27 +747,27 @@
         <v>OK</v>
       </c>
       <c r="I12" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" t="str">
-        <v>New Elephant Road</v>
+        <v>Satkhira</v>
       </c>
       <c r="C13" t="str">
-        <v>192.168.16.1</v>
+        <v>192.168.226.1</v>
       </c>
       <c r="D13" t="str">
-        <v>ADN</v>
+        <v>ALAP</v>
       </c>
       <c r="E13" t="str">
         <v>DOWN</v>
       </c>
       <c r="F13" t="str">
-        <v>Alap</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G13" t="str">
         <v>DOWN</v>
@@ -776,18 +776,18 @@
         <v>OK</v>
       </c>
       <c r="I13" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" t="str">
-        <v>Benapole</v>
+        <v>Khatungonj</v>
       </c>
       <c r="C14" t="str">
-        <v>192.168.227.1</v>
+        <v>192.168.130.1</v>
       </c>
       <c r="D14" t="str">
         <v>BDCOM</v>
@@ -810,22 +810,22 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="str">
-        <v>Satkhira</v>
+        <v>Bogra</v>
       </c>
       <c r="C15" t="str">
-        <v>192.168.226.1</v>
+        <v>192.168.162.1</v>
       </c>
       <c r="D15" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E15" t="str">
         <v>DOWN</v>
       </c>
       <c r="F15" t="str">
-        <v>AMBER-IT</v>
+        <v>ALAP</v>
       </c>
       <c r="G15" t="str">
         <v>DOWN</v>
@@ -839,22 +839,22 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="str">
-        <v>Nawabpur</v>
+        <v>Benapole</v>
       </c>
       <c r="C16" t="str">
-        <v>192.168.18.1</v>
+        <v>192.168.227.1</v>
       </c>
       <c r="D16" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E16" t="str">
         <v>DOWN</v>
       </c>
       <c r="F16" t="str">
-        <v>KS</v>
+        <v>ALAP</v>
       </c>
       <c r="G16" t="str">
         <v>DOWN</v>
@@ -868,22 +868,22 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="str">
-        <v>Uttara</v>
+        <v>North South Road</v>
       </c>
       <c r="C17" t="str">
-        <v>192.168.17.1</v>
+        <v>192.168.13.1</v>
       </c>
       <c r="D17" t="str">
-        <v>Bdcom</v>
+        <v>ADN</v>
       </c>
       <c r="E17" t="str">
         <v>DOWN</v>
       </c>
       <c r="F17" t="str">
-        <v>Alap</v>
+        <v>ALAP</v>
       </c>
       <c r="G17" t="str">
         <v>DOWN</v>
@@ -892,7 +892,7 @@
         <v>OK</v>
       </c>
       <c r="I17" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="18">
@@ -926,13 +926,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" t="str">
-        <v>Zindabazar</v>
+        <v>Banani</v>
       </c>
       <c r="C19" t="str">
-        <v>192.168.194.1</v>
+        <v>192.168.19.1</v>
       </c>
       <c r="D19" t="str">
         <v>BDCOM</v>
@@ -950,21 +950,21 @@
         <v>OK</v>
       </c>
       <c r="I19" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="str">
-        <v>Banani</v>
+        <v>Mirpur</v>
       </c>
       <c r="C20" t="str">
-        <v>192.168.19.1</v>
+        <v>192.168.20.1</v>
       </c>
       <c r="D20" t="str">
-        <v>BDCOM</v>
+        <v>ADN</v>
       </c>
       <c r="E20" t="str">
         <v>DOWN</v>
@@ -979,27 +979,27 @@
         <v>OK</v>
       </c>
       <c r="I20" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" t="str">
-        <v>Mymensingh</v>
+        <v>Uttara</v>
       </c>
       <c r="C21" t="str">
-        <v>192.168.32.1</v>
+        <v>192.168.17.1</v>
       </c>
       <c r="D21" t="str">
-        <v>ALAP</v>
+        <v>Bdcom</v>
       </c>
       <c r="E21" t="str">
         <v>DOWN</v>
       </c>
       <c r="F21" t="str">
-        <v>BDCOM</v>
+        <v>Alap</v>
       </c>
       <c r="G21" t="str">
         <v>DOWN</v>
@@ -1008,18 +1008,18 @@
         <v>OK</v>
       </c>
       <c r="I21" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="str">
-        <v>Mirpur</v>
+        <v>Mouchak</v>
       </c>
       <c r="C22" t="str">
-        <v>192.168.20.1</v>
+        <v>192.168.22.1</v>
       </c>
       <c r="D22" t="str">
         <v>ADN</v>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>North South Road</v>
+        <v>Mymensingh</v>
       </c>
       <c r="C23" t="str">
-        <v>192.168.13.1</v>
+        <v>192.168.32.1</v>
       </c>
       <c r="D23" t="str">
-        <v>ADN</v>
+        <v>ALAP</v>
       </c>
       <c r="E23" t="str">
         <v>DOWN</v>
       </c>
       <c r="F23" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="G23" t="str">
         <v>DOWN</v>
@@ -1071,16 +1071,16 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>Mouchak</v>
+        <v>Zindabazar</v>
       </c>
       <c r="C24" t="str">
-        <v>192.168.22.1</v>
+        <v>192.168.194.1</v>
       </c>
       <c r="D24" t="str">
-        <v>ADN</v>
+        <v>BDCOM</v>
       </c>
       <c r="E24" t="str">
         <v>DOWN</v>
@@ -1100,22 +1100,22 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="str">
-        <v>Sayedpur</v>
+        <v>Moulvibazar, Sylhet</v>
       </c>
       <c r="C25" t="str">
-        <v>192.168.163.1</v>
+        <v>192.168.196.1</v>
       </c>
       <c r="D25" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E25" t="str">
         <v>DOWN</v>
       </c>
       <c r="F25" t="str">
-        <v>AGNI</v>
+        <v>BRACNET</v>
       </c>
       <c r="G25" t="str">
         <v>DOWN</v>
@@ -1129,22 +1129,22 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="str">
-        <v>Moulvibazar, Sylhet</v>
+        <v>Chowmohoni</v>
       </c>
       <c r="C26" t="str">
-        <v>192.168.196.1</v>
+        <v>192.168.138.1</v>
       </c>
       <c r="D26" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E26" t="str">
         <v>DOWN</v>
       </c>
       <c r="F26" t="str">
-        <v>BRACNET</v>
+        <v>ALAP</v>
       </c>
       <c r="G26" t="str">
         <v>DOWN</v>
@@ -1153,18 +1153,18 @@
         <v>OK</v>
       </c>
       <c r="I26" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="str">
-        <v>O.R.Nizam</v>
+        <v>Sayedpur</v>
       </c>
       <c r="C27" t="str">
-        <v>192.168.132.1</v>
+        <v>192.168.163.1</v>
       </c>
       <c r="D27" t="str">
         <v>BDCOM</v>
@@ -1173,7 +1173,7 @@
         <v>DOWN</v>
       </c>
       <c r="F27" t="str">
-        <v>ALAP</v>
+        <v>AGNI</v>
       </c>
       <c r="G27" t="str">
         <v>DOWN</v>
@@ -1182,21 +1182,21 @@
         <v>OK</v>
       </c>
       <c r="I27" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28" t="str">
-        <v>Chowmohoni</v>
+        <v>Dhanmondi</v>
       </c>
       <c r="C28" t="str">
-        <v>192.168.138.1</v>
+        <v>192.168.23.1</v>
       </c>
       <c r="D28" t="str">
-        <v>BDCOM</v>
+        <v>ADN</v>
       </c>
       <c r="E28" t="str">
         <v>DOWN</v>
@@ -1211,18 +1211,18 @@
         <v>OK</v>
       </c>
       <c r="I28" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="str">
-        <v>Comilla</v>
+        <v>Jessore</v>
       </c>
       <c r="C29" t="str">
-        <v>192.168.134.1</v>
+        <v>192.168.228.1</v>
       </c>
       <c r="D29" t="str">
         <v>ALAP</v>
@@ -1231,7 +1231,7 @@
         <v>DOWN</v>
       </c>
       <c r="F29" t="str">
-        <v>BRACNET</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G29" t="str">
         <v>DOWN</v>
@@ -1245,13 +1245,13 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>Jessore</v>
+        <v>Comilla</v>
       </c>
       <c r="C30" t="str">
-        <v>192.168.228.1</v>
+        <v>192.168.134.1</v>
       </c>
       <c r="D30" t="str">
         <v>ALAP</v>
@@ -1260,7 +1260,7 @@
         <v>DOWN</v>
       </c>
       <c r="F30" t="str">
-        <v>AMBER-IT</v>
+        <v>BRACNET</v>
       </c>
       <c r="G30" t="str">
         <v>DOWN</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B31" t="str">
-        <v>Dhanmondi</v>
+        <v>O.R.Nizam</v>
       </c>
       <c r="C31" t="str">
-        <v>192.168.23.1</v>
+        <v>192.168.132.1</v>
       </c>
       <c r="D31" t="str">
-        <v>ADN</v>
+        <v>BDCOM</v>
       </c>
       <c r="E31" t="str">
         <v>DOWN</v>
@@ -1298,7 +1298,7 @@
         <v>OK</v>
       </c>
       <c r="I31" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="32">
@@ -1361,16 +1361,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="str">
-        <v>Sreemangal</v>
+        <v>Mohammadpur</v>
       </c>
       <c r="C34" t="str">
-        <v>192.168.197.1</v>
+        <v>192.168.24.1</v>
       </c>
       <c r="D34" t="str">
-        <v>BDCOM</v>
+        <v>ADN</v>
       </c>
       <c r="E34" t="str">
         <v>DOWN</v>
@@ -1385,7 +1385,7 @@
         <v>OK</v>
       </c>
       <c r="I34" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="35">
@@ -1419,16 +1419,16 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
-        <v>Narayangonj</v>
+        <v>Companigonj</v>
       </c>
       <c r="C36" t="str">
-        <v>192.168.28.1</v>
+        <v>192.168.133.1</v>
       </c>
       <c r="D36" t="str">
-        <v>SQUARE</v>
+        <v>BRACNET</v>
       </c>
       <c r="E36" t="str">
         <v>DOWN</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="str">
-        <v>Mohammadpur</v>
+        <v>Sreemangal</v>
       </c>
       <c r="C37" t="str">
-        <v>192.168.24.1</v>
+        <v>192.168.197.1</v>
       </c>
       <c r="D37" t="str">
-        <v>ADN</v>
+        <v>BDCOM</v>
       </c>
       <c r="E37" t="str">
         <v>DOWN</v>
@@ -1472,21 +1472,21 @@
         <v>OK</v>
       </c>
       <c r="I37" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="str">
-        <v>Companigonj</v>
+        <v>Narayangonj</v>
       </c>
       <c r="C38" t="str">
-        <v>192.168.133.1</v>
+        <v>192.168.28.1</v>
       </c>
       <c r="D38" t="str">
-        <v>BRACNET</v>
+        <v>SQUARE</v>
       </c>
       <c r="E38" t="str">
         <v>DOWN</v>
@@ -1506,42 +1506,42 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B39" t="str">
-        <v>Joydebpur</v>
+        <v>Beanibazar</v>
       </c>
       <c r="C39" t="str">
-        <v>192.168.31.1</v>
+        <v>192.168.195.1</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>BDCOM</v>
       </c>
       <c r="E39" t="str">
-        <v>UNKNOWN</v>
+        <v>DOWN</v>
       </c>
       <c r="F39" t="str">
-        <v/>
+        <v>BRACNET</v>
       </c>
       <c r="G39" t="str">
-        <v>UNKNOWN</v>
+        <v>DOWN</v>
       </c>
       <c r="H39" t="str">
-        <v>connect ECONNREFUSED 192.168.31.1:22</v>
+        <v>OK</v>
       </c>
       <c r="I39" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" t="str">
-        <v>Kapasia</v>
+        <v>Gallai</v>
       </c>
       <c r="C40" t="str">
-        <v>192.168.30.1</v>
+        <v>192.168.135.1</v>
       </c>
       <c r="D40" t="str">
         <v>ALAP</v>
@@ -1550,7 +1550,7 @@
         <v>DOWN</v>
       </c>
       <c r="F40" t="str">
-        <v>AMBER-IT</v>
+        <v>BDCOM</v>
       </c>
       <c r="G40" t="str">
         <v>DOWN</v>
@@ -1593,22 +1593,22 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>Beanibazar</v>
+        <v>Islampur</v>
       </c>
       <c r="C42" t="str">
-        <v>192.168.195.1</v>
+        <v>192.168.25.1</v>
       </c>
       <c r="D42" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E42" t="str">
         <v>DOWN</v>
       </c>
       <c r="F42" t="str">
-        <v>BRACNET</v>
+        <v>KS</v>
       </c>
       <c r="G42" t="str">
         <v>DOWN</v>
@@ -1617,56 +1617,56 @@
         <v>OK</v>
       </c>
       <c r="I42" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <v>41</v>
+      <c r="A43" t="str">
+        <v/>
       </c>
       <c r="B43" t="str">
-        <v>Islampur</v>
+        <v/>
       </c>
       <c r="C43" t="str">
-        <v>192.168.25.1</v>
+        <v/>
       </c>
       <c r="D43" t="str">
-        <v>ALAP</v>
+        <v/>
       </c>
       <c r="E43" t="str">
-        <v>DOWN</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="F43" t="str">
-        <v>KS</v>
+        <v/>
       </c>
       <c r="G43" t="str">
-        <v>DOWN</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H43" t="str">
         <v>OK</v>
       </c>
       <c r="I43" t="str">
-        <v>sdwan</v>
+        <v>UNKNOWN</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B44" t="str">
-        <v>Gallai</v>
+        <v>Pragati_sarani</v>
       </c>
       <c r="C44" t="str">
-        <v>192.168.135.1</v>
+        <v>192.168.21.1</v>
       </c>
       <c r="D44" t="str">
-        <v>ALAP</v>
+        <v>ADN</v>
       </c>
       <c r="E44" t="str">
         <v>DOWN</v>
       </c>
       <c r="F44" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G44" t="str">
         <v>DOWN</v>
@@ -1709,22 +1709,22 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="str">
-        <v>Pragati_sarani</v>
+        <v>Kapasia</v>
       </c>
       <c r="C46" t="str">
-        <v>192.168.21.1</v>
+        <v>192.168.30.1</v>
       </c>
       <c r="D46" t="str">
-        <v>ADN</v>
+        <v>ALAP</v>
       </c>
       <c r="E46" t="str">
         <v>DOWN</v>
       </c>
       <c r="F46" t="str">
-        <v>ALAP</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G46" t="str">
         <v>DOWN</v>
@@ -1738,22 +1738,22 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B47" t="str">
-        <v>Feni</v>
+        <v>Amborkhana</v>
       </c>
       <c r="C47" t="str">
-        <v>192.168.136.1</v>
+        <v>192.168.198.1</v>
       </c>
       <c r="D47" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E47" t="str">
         <v>DOWN</v>
       </c>
       <c r="F47" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="G47" t="str">
         <v>DOWN</v>
@@ -1762,18 +1762,18 @@
         <v>OK</v>
       </c>
       <c r="I47" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="str">
-        <v>Coxsbazar</v>
+        <v>Hathazari</v>
       </c>
       <c r="C48" t="str">
-        <v>192.168.137.1</v>
+        <v>192.168.139.1</v>
       </c>
       <c r="D48" t="str">
         <v>BDCOM</v>
@@ -1782,7 +1782,7 @@
         <v>DOWN</v>
       </c>
       <c r="F48" t="str">
-        <v>BRACNET</v>
+        <v>ALAP</v>
       </c>
       <c r="G48" t="str">
         <v>DOWN</v>
@@ -1791,18 +1791,18 @@
         <v>OK</v>
       </c>
       <c r="I48" t="str">
-        <v>mikrotik</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="str">
-        <v>Hathazari</v>
+        <v>Coxsbazar</v>
       </c>
       <c r="C49" t="str">
-        <v>192.168.139.1</v>
+        <v>192.168.137.1</v>
       </c>
       <c r="D49" t="str">
         <v>BDCOM</v>
@@ -1811,7 +1811,7 @@
         <v>DOWN</v>
       </c>
       <c r="F49" t="str">
-        <v>ALAP</v>
+        <v>BRACNET</v>
       </c>
       <c r="G49" t="str">
         <v>DOWN</v>
@@ -1820,27 +1820,27 @@
         <v>OK</v>
       </c>
       <c r="I49" t="str">
-        <v>sdwan</v>
+        <v>mikrotik</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B50" t="str">
-        <v>Amborkhana</v>
+        <v>Bhairab</v>
       </c>
       <c r="C50" t="str">
-        <v>192.168.198.1</v>
+        <v>192.168.35.1</v>
       </c>
       <c r="D50" t="str">
-        <v>ALAP</v>
+        <v>BRACNET</v>
       </c>
       <c r="E50" t="str">
         <v>DOWN</v>
       </c>
       <c r="F50" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G50" t="str">
         <v>DOWN</v>
@@ -1849,7 +1849,7 @@
         <v>OK</v>
       </c>
       <c r="I50" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="51">
@@ -1883,22 +1883,22 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B52" t="str">
-        <v>Gulshan</v>
+        <v>Feni</v>
       </c>
       <c r="C52" t="str">
-        <v>192.168.36.1</v>
+        <v>192.168.136.1</v>
       </c>
       <c r="D52" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="E52" t="str">
         <v>DOWN</v>
       </c>
       <c r="F52" t="str">
-        <v>SQUARE</v>
+        <v>ALAP</v>
       </c>
       <c r="G52" t="str">
         <v>DOWN</v>
@@ -1912,22 +1912,22 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" t="str">
-        <v>Jatrabari</v>
+        <v>Jhalokathi</v>
       </c>
       <c r="C53" t="str">
-        <v>192.168.34.1</v>
+        <v>192.168.242.1</v>
       </c>
       <c r="D53" t="str">
-        <v>KS</v>
+        <v>BRACNET</v>
       </c>
       <c r="E53" t="str">
         <v>DOWN</v>
       </c>
       <c r="F53" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="G53" t="str">
         <v>DOWN</v>
@@ -1936,27 +1936,27 @@
         <v>OK</v>
       </c>
       <c r="I53" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B54" t="str">
-        <v>Bhairab</v>
+        <v>Chuknagar</v>
       </c>
       <c r="C54" t="str">
-        <v>192.168.35.1</v>
+        <v>192.168.230.1</v>
       </c>
       <c r="D54" t="str">
-        <v>BRACNET</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="E54" t="str">
         <v>DOWN</v>
       </c>
       <c r="F54" t="str">
-        <v>ALAP</v>
+        <v>A.D.N</v>
       </c>
       <c r="G54" t="str">
         <v>DOWN</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B55" t="str">
-        <v>Jhalokathi</v>
+        <v>Hazaribagh</v>
       </c>
       <c r="C55" t="str">
-        <v>192.168.242.1</v>
+        <v>192.168.38.1</v>
       </c>
       <c r="D55" t="str">
         <v>BRACNET</v>
@@ -1985,7 +1985,7 @@
         <v>DOWN</v>
       </c>
       <c r="F55" t="str">
-        <v>BDCOM</v>
+        <v>KS</v>
       </c>
       <c r="G55" t="str">
         <v>DOWN</v>
@@ -1999,22 +1999,22 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="str">
-        <v>Chuknagar</v>
+        <v>Gulshan</v>
       </c>
       <c r="C56" t="str">
-        <v>192.168.230.1</v>
+        <v>192.168.36.1</v>
       </c>
       <c r="D56" t="str">
-        <v>AMBER-IT</v>
+        <v>BRACNET</v>
       </c>
       <c r="E56" t="str">
         <v>DOWN</v>
       </c>
       <c r="F56" t="str">
-        <v>A.D.N</v>
+        <v>SQUARE</v>
       </c>
       <c r="G56" t="str">
         <v>DOWN</v>
@@ -2028,22 +2028,22 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B57" t="str">
-        <v>Mongla</v>
+        <v>Jatrabari</v>
       </c>
       <c r="C57" t="str">
-        <v>192.168.229.1</v>
+        <v>192.168.34.1</v>
       </c>
       <c r="D57" t="str">
-        <v>BRACNET</v>
+        <v>KS</v>
       </c>
       <c r="E57" t="str">
         <v>DOWN</v>
       </c>
       <c r="F57" t="str">
-        <v>SQUARE</v>
+        <v>ALAP</v>
       </c>
       <c r="G57" t="str">
         <v>DOWN</v>
@@ -2052,27 +2052,27 @@
         <v>OK</v>
       </c>
       <c r="I57" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B58" t="str">
-        <v>Keranigonj</v>
+        <v>Manda</v>
       </c>
       <c r="C58" t="str">
-        <v>192.168.37.1</v>
+        <v>192.168.39.1</v>
       </c>
       <c r="D58" t="str">
-        <v>BRACNET</v>
+        <v>ALAP</v>
       </c>
       <c r="E58" t="str">
         <v>DOWN</v>
       </c>
       <c r="F58" t="str">
-        <v>AMBER-IT</v>
+        <v>KS</v>
       </c>
       <c r="G58" t="str">
         <v>DOWN</v>
@@ -2081,7 +2081,7 @@
         <v>OK</v>
       </c>
       <c r="I58" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="59">
@@ -2115,13 +2115,13 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="str">
-        <v>Hazaribagh</v>
+        <v>Mongla</v>
       </c>
       <c r="C60" t="str">
-        <v>192.168.38.1</v>
+        <v>192.168.229.1</v>
       </c>
       <c r="D60" t="str">
         <v>BRACNET</v>
@@ -2130,7 +2130,7 @@
         <v>DOWN</v>
       </c>
       <c r="F60" t="str">
-        <v>KS</v>
+        <v>SQUARE</v>
       </c>
       <c r="G60" t="str">
         <v>DOWN</v>
@@ -2144,22 +2144,22 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61" t="str">
-        <v>Manda</v>
+        <v>Keranigonj</v>
       </c>
       <c r="C61" t="str">
-        <v>192.168.39.1</v>
+        <v>192.168.37.1</v>
       </c>
       <c r="D61" t="str">
-        <v>ALAP</v>
+        <v>BRACNET</v>
       </c>
       <c r="E61" t="str">
         <v>DOWN</v>
       </c>
       <c r="F61" t="str">
-        <v>KS</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G61" t="str">
         <v>DOWN</v>
@@ -2168,7 +2168,7 @@
         <v>OK</v>
       </c>
       <c r="I61" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="62">
@@ -2202,13 +2202,13 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="str">
-        <v>Mothbaria</v>
+        <v>Tontor bazar</v>
       </c>
       <c r="C63" t="str">
-        <v>192.168.243.1</v>
+        <v>192.168.142.1</v>
       </c>
       <c r="D63" t="str">
         <v>BDCOM</v>
@@ -2217,7 +2217,7 @@
         <v>DOWN</v>
       </c>
       <c r="F63" t="str">
-        <v>LINK3</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G63" t="str">
         <v>DOWN</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" t="str">
-        <v>B.Baria</v>
+        <v>Mothbaria</v>
       </c>
       <c r="C64" t="str">
-        <v>192.168.141.1</v>
+        <v>192.168.243.1</v>
       </c>
       <c r="D64" t="str">
         <v>BDCOM</v>
@@ -2246,7 +2246,7 @@
         <v>DOWN</v>
       </c>
       <c r="F64" t="str">
-        <v>SQUARE</v>
+        <v>LINK3</v>
       </c>
       <c r="G64" t="str">
         <v>DOWN</v>
@@ -2260,22 +2260,22 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" t="str">
-        <v>Tontor bazar</v>
+        <v>Hemayatpur</v>
       </c>
       <c r="C65" t="str">
-        <v>192.168.142.1</v>
+        <v>192.168.41.1</v>
       </c>
       <c r="D65" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E65" t="str">
         <v>DOWN</v>
       </c>
       <c r="F65" t="str">
-        <v>AMBER-IT</v>
+        <v>BDCOM</v>
       </c>
       <c r="G65" t="str">
         <v>DOWN</v>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" t="str">
-        <v>Bodorgonj</v>
+        <v>B.Baria</v>
       </c>
       <c r="C66" t="str">
-        <v>192.168.165.1</v>
+        <v>192.168.141.1</v>
       </c>
       <c r="D66" t="str">
         <v>BDCOM</v>
@@ -2304,7 +2304,7 @@
         <v>DOWN</v>
       </c>
       <c r="F66" t="str">
-        <v>BRACNET</v>
+        <v>SQUARE</v>
       </c>
       <c r="G66" t="str">
         <v>DOWN</v>
@@ -2318,22 +2318,22 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="str">
-        <v>Abdullahpur</v>
+        <v>Bodorgonj</v>
       </c>
       <c r="C67" t="str">
-        <v>192.168.43.1</v>
+        <v>192.168.165.1</v>
       </c>
       <c r="D67" t="str">
-        <v>IOL</v>
+        <v>BDCOM</v>
       </c>
       <c r="E67" t="str">
         <v>DOWN</v>
       </c>
       <c r="F67" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="G67" t="str">
         <v>DOWN</v>
@@ -2347,16 +2347,16 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B68" t="str">
-        <v>Bondor</v>
+        <v>Abdullahpur</v>
       </c>
       <c r="C68" t="str">
-        <v>192.168.44.1</v>
+        <v>192.168.43.1</v>
       </c>
       <c r="D68" t="str">
-        <v>PCL</v>
+        <v>IOL</v>
       </c>
       <c r="E68" t="str">
         <v>DOWN</v>
@@ -2376,22 +2376,22 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B69" t="str">
-        <v>Akhaura</v>
+        <v>Bhola</v>
       </c>
       <c r="C69" t="str">
-        <v>192.168.143.1</v>
+        <v>192.168.244.1</v>
       </c>
       <c r="D69" t="str">
-        <v>BDCOM</v>
+        <v>LINK3</v>
       </c>
       <c r="E69" t="str">
         <v>DOWN</v>
       </c>
       <c r="F69" t="str">
-        <v>LINK3</v>
+        <v>A.D.N</v>
       </c>
       <c r="G69" t="str">
         <v>DOWN</v>
@@ -2405,16 +2405,16 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B70" t="str">
-        <v>Hemayatpur</v>
+        <v>Kamrangirchar</v>
       </c>
       <c r="C70" t="str">
-        <v>192.168.41.1</v>
+        <v>192.168.42.1</v>
       </c>
       <c r="D70" t="str">
-        <v>ALAP</v>
+        <v>KS</v>
       </c>
       <c r="E70" t="str">
         <v>DOWN</v>
@@ -2434,22 +2434,22 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B71" t="str">
-        <v>Kamrangirchar</v>
+        <v>Akhaura</v>
       </c>
       <c r="C71" t="str">
-        <v>192.168.42.1</v>
+        <v>192.168.143.1</v>
       </c>
       <c r="D71" t="str">
-        <v>KS</v>
+        <v>BDCOM</v>
       </c>
       <c r="E71" t="str">
         <v>DOWN</v>
       </c>
       <c r="F71" t="str">
-        <v>BDCOM</v>
+        <v>LINK3</v>
       </c>
       <c r="G71" t="str">
         <v>DOWN</v>
@@ -2463,22 +2463,22 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B72" t="str">
-        <v>Madhabpur</v>
+        <v>Khilkhet</v>
       </c>
       <c r="C72" t="str">
-        <v>192.168.199.1</v>
+        <v>192.168.45.1</v>
       </c>
       <c r="D72" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E72" t="str">
         <v>DOWN</v>
       </c>
       <c r="F72" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="G72" t="str">
         <v>DOWN</v>
@@ -2487,27 +2487,27 @@
         <v>OK</v>
       </c>
       <c r="I72" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73" t="str">
-        <v>Bhola</v>
+        <v>Bondor</v>
       </c>
       <c r="C73" t="str">
-        <v>192.168.244.1</v>
+        <v>192.168.44.1</v>
       </c>
       <c r="D73" t="str">
-        <v>LINK3</v>
+        <v>PCL</v>
       </c>
       <c r="E73" t="str">
         <v>DOWN</v>
       </c>
       <c r="F73" t="str">
-        <v>A.D.N</v>
+        <v>BDCOM</v>
       </c>
       <c r="G73" t="str">
         <v>DOWN</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" t="str">
-        <v>Khilkhet</v>
+        <v>Madhabpur</v>
       </c>
       <c r="C74" t="str">
-        <v>192.168.45.1</v>
+        <v>192.168.199.1</v>
       </c>
       <c r="D74" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E74" t="str">
         <v>DOWN</v>
       </c>
       <c r="F74" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="G74" t="str">
         <v>DOWN</v>
@@ -2545,18 +2545,18 @@
         <v>OK</v>
       </c>
       <c r="I74" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="str">
-        <v>Dinajpur</v>
+        <v>Mirpur-10</v>
       </c>
       <c r="C75" t="str">
-        <v>192.168.166.1</v>
+        <v>192.168.46.1</v>
       </c>
       <c r="D75" t="str">
         <v>BDCOM</v>
@@ -2574,18 +2574,18 @@
         <v>OK</v>
       </c>
       <c r="I75" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="str">
-        <v>Mirpur-10</v>
+        <v>Dinajpur</v>
       </c>
       <c r="C76" t="str">
-        <v>192.168.46.1</v>
+        <v>192.168.166.1</v>
       </c>
       <c r="D76" t="str">
         <v>BDCOM</v>
@@ -2603,18 +2603,18 @@
         <v>OK</v>
       </c>
       <c r="I76" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="str">
-        <v>South Jatrabari</v>
+        <v>Gazipur</v>
       </c>
       <c r="C77" t="str">
-        <v>192.168.48.1</v>
+        <v>192.168.47.1</v>
       </c>
       <c r="D77" t="str">
         <v>BDCOM</v>
@@ -2632,18 +2632,18 @@
         <v>OK</v>
       </c>
       <c r="I77" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="str">
-        <v>Gazipur</v>
+        <v>South Jatrabari</v>
       </c>
       <c r="C78" t="str">
-        <v>192.168.47.1</v>
+        <v>192.168.48.1</v>
       </c>
       <c r="D78" t="str">
         <v>BDCOM</v>
@@ -2661,27 +2661,27 @@
         <v>OK</v>
       </c>
       <c r="I78" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="str">
-        <v>Panchdona</v>
+        <v>Bashurhat</v>
       </c>
       <c r="C79" t="str">
-        <v>192.168.49.1</v>
+        <v>192.168.144.1</v>
       </c>
       <c r="D79" t="str">
-        <v>AMBER-IT</v>
+        <v>BDCOM</v>
       </c>
       <c r="E79" t="str">
         <v>DOWN</v>
       </c>
       <c r="F79" t="str">
-        <v>ALAP</v>
+        <v>BRACNET</v>
       </c>
       <c r="G79" t="str">
         <v>DOWN</v>
@@ -2695,22 +2695,22 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B80" t="str">
-        <v>Bashurhat</v>
+        <v>Kolatia</v>
       </c>
       <c r="C80" t="str">
-        <v>192.168.144.1</v>
+        <v>192.168.50.1</v>
       </c>
       <c r="D80" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="E80" t="str">
         <v>DOWN</v>
       </c>
       <c r="F80" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="G80" t="str">
         <v>DOWN</v>
@@ -2719,27 +2719,27 @@
         <v>OK</v>
       </c>
       <c r="I80" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="str">
-        <v>Shahzadpur</v>
+        <v>Panchdona</v>
       </c>
       <c r="C81" t="str">
-        <v>192.168.167.1</v>
+        <v>192.168.49.1</v>
       </c>
       <c r="D81" t="str">
-        <v>BRACNET</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="E81" t="str">
         <v>DOWN</v>
       </c>
       <c r="F81" t="str">
-        <v>AMBER-IT</v>
+        <v>ALAP</v>
       </c>
       <c r="G81" t="str">
         <v>DOWN</v>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B82" t="str">
-        <v>Natunbazar</v>
+        <v>Shahzadpur</v>
       </c>
       <c r="C82" t="str">
-        <v>192.168.54.1</v>
+        <v>192.168.167.1</v>
       </c>
       <c r="D82" t="str">
         <v>BRACNET</v>
@@ -2768,7 +2768,7 @@
         <v>DOWN</v>
       </c>
       <c r="F82" t="str">
-        <v>BDCOM</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G82" t="str">
         <v>DOWN</v>
@@ -2782,13 +2782,13 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="str">
-        <v>Kolatia</v>
+        <v>Hajigonj</v>
       </c>
       <c r="C83" t="str">
-        <v>192.168.50.1</v>
+        <v>192.168.145.1</v>
       </c>
       <c r="D83" t="str">
         <v>BRACNET</v>
@@ -2797,7 +2797,7 @@
         <v>DOWN</v>
       </c>
       <c r="F83" t="str">
-        <v>BDCOM</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G83" t="str">
         <v>DOWN</v>
@@ -2806,18 +2806,18 @@
         <v>OK</v>
       </c>
       <c r="I83" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" t="str">
-        <v>Hajigonj</v>
+        <v>Panthopath</v>
       </c>
       <c r="C84" t="str">
-        <v>192.168.145.1</v>
+        <v>192.168.52.1</v>
       </c>
       <c r="D84" t="str">
         <v>BRACNET</v>
@@ -2826,7 +2826,7 @@
         <v>DOWN</v>
       </c>
       <c r="F84" t="str">
-        <v>AMBER-IT</v>
+        <v>SQUARE</v>
       </c>
       <c r="G84" t="str">
         <v>DOWN</v>
@@ -2835,27 +2835,27 @@
         <v>OK</v>
       </c>
       <c r="I84" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85" t="str">
-        <v>Panthopath</v>
+        <v>Kutibazar</v>
       </c>
       <c r="C85" t="str">
-        <v>192.168.52.1</v>
+        <v>192.168.147.1</v>
       </c>
       <c r="D85" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="E85" t="str">
         <v>DOWN</v>
       </c>
       <c r="F85" t="str">
-        <v>SQUARE</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G85" t="str">
         <v>DOWN</v>
@@ -2864,27 +2864,27 @@
         <v>OK</v>
       </c>
       <c r="I85" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="str">
-        <v>Kutibazar</v>
+        <v>Natunbazar</v>
       </c>
       <c r="C86" t="str">
-        <v>192.168.147.1</v>
+        <v>192.168.54.1</v>
       </c>
       <c r="D86" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="E86" t="str">
         <v>DOWN</v>
       </c>
       <c r="F86" t="str">
-        <v>AMBER-IT</v>
+        <v>BDCOM</v>
       </c>
       <c r="G86" t="str">
         <v>DOWN</v>
@@ -2927,71 +2927,71 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B88" t="str">
-        <v>Dokkhinkhan</v>
+        <v>Stationroad</v>
       </c>
       <c r="C88" t="str">
-        <v>192.168.53.1</v>
+        <v>192.168.146.1</v>
       </c>
       <c r="D88" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E88" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F88" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G88" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H88" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I88" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
         <v/>
       </c>
-      <c r="E88" t="str">
+      <c r="B89" t="str">
+        <v/>
+      </c>
+      <c r="C89" t="str">
+        <v/>
+      </c>
+      <c r="D89" t="str">
+        <v/>
+      </c>
+      <c r="E89" t="str">
         <v>UNKNOWN</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F89" t="str">
         <v/>
       </c>
-      <c r="G88" t="str">
+      <c r="G89" t="str">
         <v>UNKNOWN</v>
       </c>
-      <c r="H88" t="str">
-        <v>connect ECONNREFUSED 192.168.53.1:22</v>
-      </c>
-      <c r="I88" t="str">
-        <v>legacy</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>90</v>
-      </c>
-      <c r="B89" t="str">
-        <v>Rahimanogor</v>
-      </c>
-      <c r="C89" t="str">
-        <v>192.168.148.1</v>
-      </c>
-      <c r="D89" t="str">
-        <v>ALAP</v>
-      </c>
-      <c r="E89" t="str">
-        <v>DOWN</v>
-      </c>
-      <c r="F89" t="str">
-        <v>LINK3</v>
-      </c>
-      <c r="G89" t="str">
-        <v>DOWN</v>
-      </c>
       <c r="H89" t="str">
         <v>OK</v>
       </c>
       <c r="I89" t="str">
-        <v>legacy</v>
+        <v>UNKNOWN</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="str">
-        <v>Stationroad</v>
+        <v>Shymoli</v>
       </c>
       <c r="C90" t="str">
-        <v>192.168.146.1</v>
+        <v>192.168.55.1</v>
       </c>
       <c r="D90" t="str">
         <v>BRACNET</v>
@@ -3000,7 +3000,7 @@
         <v>DOWN</v>
       </c>
       <c r="F90" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="G90" t="str">
         <v>DOWN</v>
@@ -3009,27 +3009,27 @@
         <v>OK</v>
       </c>
       <c r="I90" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="str">
-        <v>Shymoli</v>
+        <v>Rahimanogor</v>
       </c>
       <c r="C91" t="str">
-        <v>192.168.55.1</v>
+        <v>192.168.148.1</v>
       </c>
       <c r="D91" t="str">
-        <v>BRACNET</v>
+        <v>ALAP</v>
       </c>
       <c r="E91" t="str">
         <v>DOWN</v>
       </c>
       <c r="F91" t="str">
-        <v>BDCOM</v>
+        <v>LINK3</v>
       </c>
       <c r="G91" t="str">
         <v>DOWN</v>
@@ -3038,18 +3038,18 @@
         <v>OK</v>
       </c>
       <c r="I91" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="str">
-        <v>Valanagar</v>
+        <v>Kathgora</v>
       </c>
       <c r="C92" t="str">
-        <v>192.168.56.1</v>
+        <v>192.168.57.1</v>
       </c>
       <c r="D92" t="str">
         <v>ALAP</v>
@@ -3058,7 +3058,7 @@
         <v>DOWN</v>
       </c>
       <c r="F92" t="str">
-        <v>AMBER-IT</v>
+        <v>BDCOM</v>
       </c>
       <c r="G92" t="str">
         <v>DOWN</v>
@@ -3067,18 +3067,18 @@
         <v>OK</v>
       </c>
       <c r="I92" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="str">
-        <v>Kathgora</v>
+        <v>Valanagar</v>
       </c>
       <c r="C93" t="str">
-        <v>192.168.57.1</v>
+        <v>192.168.56.1</v>
       </c>
       <c r="D93" t="str">
         <v>ALAP</v>
@@ -3087,7 +3087,7 @@
         <v>DOWN</v>
       </c>
       <c r="F93" t="str">
-        <v>BDCOM</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G93" t="str">
         <v>DOWN</v>
@@ -3096,21 +3096,21 @@
         <v>OK</v>
       </c>
       <c r="I93" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="str">
-        <v>Pabna</v>
+        <v>Ruhitpur</v>
       </c>
       <c r="C94" t="str">
-        <v>192.168.168.1</v>
+        <v>192.168.59.1</v>
       </c>
       <c r="D94" t="str">
-        <v>BDCOM</v>
+        <v>KS</v>
       </c>
       <c r="E94" t="str">
         <v>DOWN</v>
@@ -3130,16 +3130,16 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B95" t="str">
-        <v>Ruhitpur</v>
+        <v>Halishohor</v>
       </c>
       <c r="C95" t="str">
-        <v>192.168.59.1</v>
+        <v>192.168.149.1</v>
       </c>
       <c r="D95" t="str">
-        <v>KS</v>
+        <v>BDCOM</v>
       </c>
       <c r="E95" t="str">
         <v>DOWN</v>
@@ -3159,13 +3159,13 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="str">
-        <v>Halishohor</v>
+        <v>Pabna</v>
       </c>
       <c r="C96" t="str">
-        <v>192.168.149.1</v>
+        <v>192.168.168.1</v>
       </c>
       <c r="D96" t="str">
         <v>BDCOM</v>
@@ -3188,16 +3188,16 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" t="str">
-        <v>Rangpur</v>
+        <v>Noyapur</v>
       </c>
       <c r="C97" t="str">
-        <v>192.168.169.1</v>
+        <v>192.168.60.1</v>
       </c>
       <c r="D97" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="E97" t="str">
         <v>DOWN</v>
@@ -3217,22 +3217,22 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" t="str">
-        <v>Gollamari</v>
+        <v>Uttara Janapath</v>
       </c>
       <c r="C98" t="str">
-        <v>192.168.231.1</v>
+        <v>192.168.58.1</v>
       </c>
       <c r="D98" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E98" t="str">
         <v>DOWN</v>
       </c>
       <c r="F98" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="G98" t="str">
         <v>DOWN</v>
@@ -3241,18 +3241,18 @@
         <v>OK</v>
       </c>
       <c r="I98" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99" t="str">
-        <v>Uttara Janapath</v>
+        <v>Bormi</v>
       </c>
       <c r="C99" t="str">
-        <v>192.168.58.1</v>
+        <v>192.168.62.1</v>
       </c>
       <c r="D99" t="str">
         <v>ALAP</v>
@@ -3270,18 +3270,18 @@
         <v>OK</v>
       </c>
       <c r="I99" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B100" t="str">
-        <v>Rampura</v>
+        <v>Rangpur</v>
       </c>
       <c r="C100" t="str">
-        <v>192.168.63.1</v>
+        <v>192.168.169.1</v>
       </c>
       <c r="D100" t="str">
         <v>BDCOM</v>
@@ -3299,27 +3299,27 @@
         <v>OK</v>
       </c>
       <c r="I100" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B101" t="str">
-        <v>Bormi</v>
+        <v>Gollamari</v>
       </c>
       <c r="C101" t="str">
-        <v>192.168.62.1</v>
+        <v>192.168.231.1</v>
       </c>
       <c r="D101" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E101" t="str">
         <v>DOWN</v>
       </c>
       <c r="F101" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G101" t="str">
         <v>DOWN</v>
@@ -3333,22 +3333,22 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" t="str">
-        <v>Teknaf</v>
+        <v>Rampal</v>
       </c>
       <c r="C102" t="str">
-        <v>192.168.150.1</v>
+        <v>192.168.61.1</v>
       </c>
       <c r="D102" t="str">
-        <v>AMBER-IT</v>
+        <v>BRACNET</v>
       </c>
       <c r="E102" t="str">
         <v>DOWN</v>
       </c>
       <c r="F102" t="str">
-        <v>BRACNET</v>
+        <v>ALAP</v>
       </c>
       <c r="G102" t="str">
         <v>DOWN</v>
@@ -3357,7 +3357,7 @@
         <v>OK</v>
       </c>
       <c r="I102" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="103">
@@ -3391,22 +3391,22 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B104" t="str">
-        <v>Noyapur</v>
+        <v>Teknaf</v>
       </c>
       <c r="C104" t="str">
-        <v>192.168.60.1</v>
+        <v>192.168.150.1</v>
       </c>
       <c r="D104" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="E104" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F104" t="str">
         <v>BRACNET</v>
-      </c>
-      <c r="E104" t="str">
-        <v>DOWN</v>
-      </c>
-      <c r="F104" t="str">
-        <v>ALAP</v>
       </c>
       <c r="G104" t="str">
         <v>DOWN</v>
@@ -3420,16 +3420,16 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B105" t="str">
-        <v>Rampal</v>
+        <v>Rampura</v>
       </c>
       <c r="C105" t="str">
-        <v>192.168.61.1</v>
+        <v>192.168.63.1</v>
       </c>
       <c r="D105" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="E105" t="str">
         <v>DOWN</v>

--- a/isp_status.xlsx
+++ b/isp_status.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,22 +433,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="str">
-        <v>Nawabpur</v>
+        <v>VIP Road</v>
       </c>
       <c r="C2" t="str">
-        <v>192.168.18.1</v>
+        <v>192.168.14.1</v>
       </c>
       <c r="D2" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E2" t="str">
         <v>DOWN</v>
       </c>
       <c r="F2" t="str">
-        <v>KS</v>
+        <v>ALAP</v>
       </c>
       <c r="G2" t="str">
         <v>DOWN</v>
@@ -462,13 +462,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" t="str">
-        <v>Corporate</v>
+        <v>Rajshahi</v>
       </c>
       <c r="C3" t="str">
-        <v>192.168.15.1</v>
+        <v>192.168.161.1</v>
       </c>
       <c r="D3" t="str">
         <v>BDCOM</v>
@@ -491,22 +491,22 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" t="str">
-        <v>New Elephant Road</v>
+        <v>Laldighirpar</v>
       </c>
       <c r="C4" t="str">
-        <v>192.168.16.1</v>
+        <v>192.168.193.1</v>
       </c>
       <c r="D4" t="str">
-        <v>ADN</v>
+        <v>BDCOM</v>
       </c>
       <c r="E4" t="str">
         <v>DOWN</v>
       </c>
       <c r="F4" t="str">
-        <v>Alap</v>
+        <v>ALAP</v>
       </c>
       <c r="G4" t="str">
         <v>DOWN</v>
@@ -515,18 +515,18 @@
         <v>OK</v>
       </c>
       <c r="I4" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="str">
-        <v>VIP Road</v>
+        <v>Agrabad</v>
       </c>
       <c r="C5" t="str">
-        <v>192.168.14.1</v>
+        <v>192.168.129.1</v>
       </c>
       <c r="D5" t="str">
         <v>BDCOM</v>
@@ -544,27 +544,27 @@
         <v>OK</v>
       </c>
       <c r="I5" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="str">
-        <v>Motijheel</v>
+        <v>Khulna</v>
       </c>
       <c r="C6" t="str">
-        <v>192.168.11.1</v>
+        <v>192.168.225.1</v>
       </c>
       <c r="D6" t="str">
-        <v>ALAP</v>
+        <v xml:space="preserve">BDCOM </v>
       </c>
       <c r="E6" t="str">
         <v>DOWN</v>
       </c>
       <c r="F6" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G6" t="str">
         <v>DOWN</v>
@@ -573,7 +573,7 @@
         <v>OK</v>
       </c>
       <c r="I6" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="7">
@@ -607,22 +607,22 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="str">
-        <v>Agrabad</v>
+        <v>Motijheel</v>
       </c>
       <c r="C8" t="str">
-        <v>192.168.129.1</v>
+        <v>192.168.11.1</v>
       </c>
       <c r="D8" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E8" t="str">
         <v>DOWN</v>
       </c>
       <c r="F8" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="G8" t="str">
         <v>DOWN</v>
@@ -636,13 +636,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>Rajshahi</v>
+        <v>Bogra</v>
       </c>
       <c r="C9" t="str">
-        <v>192.168.161.1</v>
+        <v>192.168.162.1</v>
       </c>
       <c r="D9" t="str">
         <v>BDCOM</v>
@@ -665,13 +665,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>Laldighirpar</v>
+        <v>Khatungonj</v>
       </c>
       <c r="C10" t="str">
-        <v>192.168.193.1</v>
+        <v>192.168.130.1</v>
       </c>
       <c r="D10" t="str">
         <v>BDCOM</v>
@@ -689,27 +689,27 @@
         <v>OK</v>
       </c>
       <c r="I10" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="str">
-        <v>Barisal</v>
+        <v>Benapole</v>
       </c>
       <c r="C11" t="str">
-        <v>192.168.241.1</v>
+        <v>192.168.227.1</v>
       </c>
       <c r="D11" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E11" t="str">
         <v>DOWN</v>
       </c>
       <c r="F11" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G11" t="str">
         <v>DOWN</v>
@@ -718,27 +718,27 @@
         <v>OK</v>
       </c>
       <c r="I11" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>Khulna</v>
+        <v>Satkhira</v>
       </c>
       <c r="C12" t="str">
-        <v>192.168.225.1</v>
+        <v>192.168.226.1</v>
       </c>
       <c r="D12" t="str">
-        <v xml:space="preserve">BDCOM </v>
+        <v>ALAP</v>
       </c>
       <c r="E12" t="str">
         <v>DOWN</v>
       </c>
       <c r="F12" t="str">
-        <v>ALAP</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G12" t="str">
         <v>DOWN</v>
@@ -747,18 +747,18 @@
         <v>OK</v>
       </c>
       <c r="I12" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>Satkhira</v>
+        <v>Nawabpur</v>
       </c>
       <c r="C13" t="str">
-        <v>192.168.226.1</v>
+        <v>192.168.18.1</v>
       </c>
       <c r="D13" t="str">
         <v>ALAP</v>
@@ -767,7 +767,7 @@
         <v>DOWN</v>
       </c>
       <c r="F13" t="str">
-        <v>AMBER-IT</v>
+        <v>KS</v>
       </c>
       <c r="G13" t="str">
         <v>DOWN</v>
@@ -776,18 +776,18 @@
         <v>OK</v>
       </c>
       <c r="I13" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" t="str">
-        <v>Khatungonj</v>
+        <v>Corporate</v>
       </c>
       <c r="C14" t="str">
-        <v>192.168.130.1</v>
+        <v>192.168.15.1</v>
       </c>
       <c r="D14" t="str">
         <v>BDCOM</v>
@@ -805,27 +805,27 @@
         <v>OK</v>
       </c>
       <c r="I14" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B15" t="str">
-        <v>Bogra</v>
+        <v>New Elephant Road</v>
       </c>
       <c r="C15" t="str">
-        <v>192.168.162.1</v>
+        <v>192.168.16.1</v>
       </c>
       <c r="D15" t="str">
-        <v>BDCOM</v>
+        <v>ADN</v>
       </c>
       <c r="E15" t="str">
         <v>DOWN</v>
       </c>
       <c r="F15" t="str">
-        <v>ALAP</v>
+        <v>Alap</v>
       </c>
       <c r="G15" t="str">
         <v>DOWN</v>
@@ -834,27 +834,27 @@
         <v>OK</v>
       </c>
       <c r="I15" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="str">
-        <v>Benapole</v>
+        <v>Barisal</v>
       </c>
       <c r="C16" t="str">
-        <v>192.168.227.1</v>
+        <v>192.168.241.1</v>
       </c>
       <c r="D16" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E16" t="str">
         <v>DOWN</v>
       </c>
       <c r="F16" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="G16" t="str">
         <v>DOWN</v>
@@ -863,7 +863,7 @@
         <v>OK</v>
       </c>
       <c r="I16" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="17">
@@ -897,22 +897,22 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>Jublee Road</v>
+        <v>Uttara</v>
       </c>
       <c r="C18" t="str">
-        <v>192.168.131.1</v>
+        <v>192.168.17.1</v>
       </c>
       <c r="D18" t="str">
-        <v>BDCOM</v>
+        <v>Bdcom</v>
       </c>
       <c r="E18" t="str">
         <v>DOWN</v>
       </c>
       <c r="F18" t="str">
-        <v>ALAP</v>
+        <v>Alap</v>
       </c>
       <c r="G18" t="str">
         <v>DOWN</v>
@@ -955,16 +955,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="str">
-        <v>Mirpur</v>
+        <v>Jublee Road</v>
       </c>
       <c r="C20" t="str">
-        <v>192.168.20.1</v>
+        <v>192.168.131.1</v>
       </c>
       <c r="D20" t="str">
-        <v>ADN</v>
+        <v>BDCOM</v>
       </c>
       <c r="E20" t="str">
         <v>DOWN</v>
@@ -984,22 +984,22 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B21" t="str">
-        <v>Uttara</v>
+        <v>Zindabazar</v>
       </c>
       <c r="C21" t="str">
-        <v>192.168.17.1</v>
+        <v>192.168.194.1</v>
       </c>
       <c r="D21" t="str">
-        <v>Bdcom</v>
+        <v>BDCOM</v>
       </c>
       <c r="E21" t="str">
         <v>DOWN</v>
       </c>
       <c r="F21" t="str">
-        <v>Alap</v>
+        <v>ALAP</v>
       </c>
       <c r="G21" t="str">
         <v>DOWN</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="str">
-        <v>Zindabazar</v>
+        <v>Sayedpur</v>
       </c>
       <c r="C24" t="str">
-        <v>192.168.194.1</v>
+        <v>192.168.163.1</v>
       </c>
       <c r="D24" t="str">
         <v>BDCOM</v>
@@ -1086,7 +1086,7 @@
         <v>DOWN</v>
       </c>
       <c r="F24" t="str">
-        <v>ALAP</v>
+        <v>AGNI</v>
       </c>
       <c r="G24" t="str">
         <v>DOWN</v>
@@ -1095,27 +1095,27 @@
         <v>OK</v>
       </c>
       <c r="I24" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="str">
-        <v>Moulvibazar, Sylhet</v>
+        <v>O.R.Nizam</v>
       </c>
       <c r="C25" t="str">
-        <v>192.168.196.1</v>
+        <v>192.168.132.1</v>
       </c>
       <c r="D25" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E25" t="str">
         <v>DOWN</v>
       </c>
       <c r="F25" t="str">
-        <v>BRACNET</v>
+        <v>ALAP</v>
       </c>
       <c r="G25" t="str">
         <v>DOWN</v>
@@ -1124,21 +1124,21 @@
         <v>OK</v>
       </c>
       <c r="I25" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B26" t="str">
-        <v>Chowmohoni</v>
+        <v>Mirpur</v>
       </c>
       <c r="C26" t="str">
-        <v>192.168.138.1</v>
+        <v>192.168.20.1</v>
       </c>
       <c r="D26" t="str">
-        <v>BDCOM</v>
+        <v>ADN</v>
       </c>
       <c r="E26" t="str">
         <v>DOWN</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27" t="str">
-        <v>Sayedpur</v>
+        <v>Chowmohoni</v>
       </c>
       <c r="C27" t="str">
-        <v>192.168.163.1</v>
+        <v>192.168.138.1</v>
       </c>
       <c r="D27" t="str">
         <v>BDCOM</v>
@@ -1173,7 +1173,7 @@
         <v>DOWN</v>
       </c>
       <c r="F27" t="str">
-        <v>AGNI</v>
+        <v>ALAP</v>
       </c>
       <c r="G27" t="str">
         <v>DOWN</v>
@@ -1182,27 +1182,27 @@
         <v>OK</v>
       </c>
       <c r="I27" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>Dhanmondi</v>
+        <v>Moulvibazar, Sylhet</v>
       </c>
       <c r="C28" t="str">
-        <v>192.168.23.1</v>
+        <v>192.168.196.1</v>
       </c>
       <c r="D28" t="str">
-        <v>ADN</v>
+        <v>ALAP</v>
       </c>
       <c r="E28" t="str">
         <v>DOWN</v>
       </c>
       <c r="F28" t="str">
-        <v>ALAP</v>
+        <v>BRACNET</v>
       </c>
       <c r="G28" t="str">
         <v>DOWN</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B31" t="str">
-        <v>O.R.Nizam</v>
+        <v>Dhanmondi</v>
       </c>
       <c r="C31" t="str">
-        <v>192.168.132.1</v>
+        <v>192.168.23.1</v>
       </c>
       <c r="D31" t="str">
-        <v>BDCOM</v>
+        <v>ADN</v>
       </c>
       <c r="E31" t="str">
         <v>DOWN</v>
@@ -1298,27 +1298,27 @@
         <v>OK</v>
       </c>
       <c r="I31" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="str">
-        <v>Madhabdi</v>
+        <v>Mohadevpur</v>
       </c>
       <c r="C32" t="str">
-        <v>192.168.27.1</v>
+        <v>192.168.164.1</v>
       </c>
       <c r="D32" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E32" t="str">
         <v>DOWN</v>
       </c>
       <c r="F32" t="str">
-        <v>ALAP</v>
+        <v>BRACNET</v>
       </c>
       <c r="G32" t="str">
         <v>DOWN</v>
@@ -1327,27 +1327,27 @@
         <v>OK</v>
       </c>
       <c r="I32" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="str">
-        <v>Mohadevpur</v>
+        <v>Madhabdi</v>
       </c>
       <c r="C33" t="str">
-        <v>192.168.164.1</v>
+        <v>192.168.27.1</v>
       </c>
       <c r="D33" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E33" t="str">
         <v>DOWN</v>
       </c>
       <c r="F33" t="str">
-        <v>BRACNET</v>
+        <v>ALAP</v>
       </c>
       <c r="G33" t="str">
         <v>DOWN</v>
@@ -1356,21 +1356,21 @@
         <v>OK</v>
       </c>
       <c r="I33" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" t="str">
-        <v>Mohammadpur</v>
+        <v>Sreemangal</v>
       </c>
       <c r="C34" t="str">
-        <v>192.168.24.1</v>
+        <v>192.168.197.1</v>
       </c>
       <c r="D34" t="str">
-        <v>ADN</v>
+        <v>BDCOM</v>
       </c>
       <c r="E34" t="str">
         <v>DOWN</v>
@@ -1385,27 +1385,27 @@
         <v>OK</v>
       </c>
       <c r="I34" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
-        <v>Pagla</v>
+        <v>Narayangonj</v>
       </c>
       <c r="C35" t="str">
-        <v>192.168.29.1</v>
+        <v>192.168.28.1</v>
       </c>
       <c r="D35" t="str">
-        <v>LINK3</v>
+        <v>SQUARE</v>
       </c>
       <c r="E35" t="str">
         <v>DOWN</v>
       </c>
       <c r="F35" t="str">
-        <v>AMBER-IT</v>
+        <v>ALAP</v>
       </c>
       <c r="G35" t="str">
         <v>DOWN</v>
@@ -1419,16 +1419,16 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" t="str">
-        <v>Companigonj</v>
+        <v>Mohammadpur</v>
       </c>
       <c r="C36" t="str">
-        <v>192.168.133.1</v>
+        <v>192.168.24.1</v>
       </c>
       <c r="D36" t="str">
-        <v>BRACNET</v>
+        <v>ADN</v>
       </c>
       <c r="E36" t="str">
         <v>DOWN</v>
@@ -1443,27 +1443,27 @@
         <v>OK</v>
       </c>
       <c r="I36" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="str">
-        <v>Sreemangal</v>
+        <v>Pagla</v>
       </c>
       <c r="C37" t="str">
-        <v>192.168.197.1</v>
+        <v>192.168.29.1</v>
       </c>
       <c r="D37" t="str">
-        <v>BDCOM</v>
+        <v>LINK3</v>
       </c>
       <c r="E37" t="str">
         <v>DOWN</v>
       </c>
       <c r="F37" t="str">
-        <v>ALAP</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G37" t="str">
         <v>DOWN</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="str">
-        <v>Narayangonj</v>
+        <v>Companigonj</v>
       </c>
       <c r="C38" t="str">
-        <v>192.168.28.1</v>
+        <v>192.168.133.1</v>
       </c>
       <c r="D38" t="str">
-        <v>SQUARE</v>
+        <v>BRACNET</v>
       </c>
       <c r="E38" t="str">
         <v>DOWN</v>
@@ -1506,22 +1506,22 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" t="str">
-        <v>Beanibazar</v>
+        <v>Gallai</v>
       </c>
       <c r="C39" t="str">
-        <v>192.168.195.1</v>
+        <v>192.168.135.1</v>
       </c>
       <c r="D39" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E39" t="str">
         <v>DOWN</v>
       </c>
       <c r="F39" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="G39" t="str">
         <v>DOWN</v>
@@ -1535,22 +1535,22 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="str">
-        <v>Gallai</v>
+        <v>Dilkusha</v>
       </c>
       <c r="C40" t="str">
-        <v>192.168.135.1</v>
+        <v>192.168.26.1</v>
       </c>
       <c r="D40" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E40" t="str">
         <v>DOWN</v>
       </c>
       <c r="F40" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G40" t="str">
         <v>DOWN</v>
@@ -1559,27 +1559,27 @@
         <v>OK</v>
       </c>
       <c r="I40" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="str">
-        <v>Dilkusha</v>
+        <v>Islampur</v>
       </c>
       <c r="C41" t="str">
-        <v>192.168.26.1</v>
+        <v>192.168.25.1</v>
       </c>
       <c r="D41" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E41" t="str">
         <v>DOWN</v>
       </c>
       <c r="F41" t="str">
-        <v>ALAP</v>
+        <v>KS</v>
       </c>
       <c r="G41" t="str">
         <v>DOWN</v>
@@ -1592,81 +1592,81 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" t="str">
+        <v/>
       </c>
       <c r="B42" t="str">
-        <v>Islampur</v>
+        <v/>
       </c>
       <c r="C42" t="str">
-        <v>192.168.25.1</v>
+        <v/>
       </c>
       <c r="D42" t="str">
-        <v>ALAP</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v>DOWN</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="F42" t="str">
-        <v>KS</v>
+        <v/>
       </c>
       <c r="G42" t="str">
-        <v>DOWN</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H42" t="str">
         <v>OK</v>
       </c>
       <c r="I42" t="str">
-        <v>sdwan</v>
+        <v>UNKNOWN</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
-        <v/>
+      <c r="A43">
+        <v>43</v>
       </c>
       <c r="B43" t="str">
-        <v/>
+        <v>Beanibazar</v>
       </c>
       <c r="C43" t="str">
-        <v/>
+        <v>192.168.195.1</v>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>BDCOM</v>
       </c>
       <c r="E43" t="str">
-        <v>UNKNOWN</v>
+        <v>DOWN</v>
       </c>
       <c r="F43" t="str">
-        <v/>
+        <v>BRACNET</v>
       </c>
       <c r="G43" t="str">
-        <v>UNKNOWN</v>
+        <v>DOWN</v>
       </c>
       <c r="H43" t="str">
         <v>OK</v>
       </c>
       <c r="I43" t="str">
-        <v>UNKNOWN</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="str">
-        <v>Pragati_sarani</v>
+        <v>Kapasia</v>
       </c>
       <c r="C44" t="str">
-        <v>192.168.21.1</v>
+        <v>192.168.30.1</v>
       </c>
       <c r="D44" t="str">
-        <v>ADN</v>
+        <v>ALAP</v>
       </c>
       <c r="E44" t="str">
         <v>DOWN</v>
       </c>
       <c r="F44" t="str">
-        <v>ALAP</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G44" t="str">
         <v>DOWN</v>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="str">
-        <v>Feni</v>
+        <v>Pragati_sarani</v>
       </c>
       <c r="C45" t="str">
-        <v>192.168.136.1</v>
+        <v>192.168.21.1</v>
       </c>
       <c r="D45" t="str">
-        <v>BDCOM</v>
+        <v>ADN</v>
       </c>
       <c r="E45" t="str">
         <v>DOWN</v>
@@ -1709,22 +1709,22 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="str">
-        <v>Kapasia</v>
+        <v>Feni</v>
       </c>
       <c r="C46" t="str">
-        <v>192.168.30.1</v>
+        <v>192.168.136.1</v>
       </c>
       <c r="D46" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E46" t="str">
         <v>DOWN</v>
       </c>
       <c r="F46" t="str">
-        <v>AMBER-IT</v>
+        <v>ALAP</v>
       </c>
       <c r="G46" t="str">
         <v>DOWN</v>
@@ -1738,22 +1738,22 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" t="str">
-        <v>Amborkhana</v>
+        <v>Coxsbazar</v>
       </c>
       <c r="C47" t="str">
-        <v>192.168.198.1</v>
+        <v>192.168.137.1</v>
       </c>
       <c r="D47" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="E47" t="str">
         <v>DOWN</v>
       </c>
       <c r="F47" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="G47" t="str">
         <v>DOWN</v>
@@ -1762,18 +1762,18 @@
         <v>OK</v>
       </c>
       <c r="I47" t="str">
-        <v>sdwan</v>
+        <v>mikrotik</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="str">
-        <v>Hathazari</v>
+        <v>Feni</v>
       </c>
       <c r="C48" t="str">
-        <v>192.168.139.1</v>
+        <v>192.168.136.1</v>
       </c>
       <c r="D48" t="str">
         <v>BDCOM</v>
@@ -1791,27 +1791,27 @@
         <v>OK</v>
       </c>
       <c r="I48" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49" t="str">
-        <v>Coxsbazar</v>
+        <v>Konapara</v>
       </c>
       <c r="C49" t="str">
-        <v>192.168.137.1</v>
+        <v>192.168.33.1</v>
       </c>
       <c r="D49" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="E49" t="str">
         <v>DOWN</v>
       </c>
       <c r="F49" t="str">
-        <v>BRACNET</v>
+        <v>KS</v>
       </c>
       <c r="G49" t="str">
         <v>DOWN</v>
@@ -1820,21 +1820,21 @@
         <v>OK</v>
       </c>
       <c r="I49" t="str">
-        <v>mikrotik</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="str">
-        <v>Bhairab</v>
+        <v>Jatrabari</v>
       </c>
       <c r="C50" t="str">
-        <v>192.168.35.1</v>
+        <v>192.168.34.1</v>
       </c>
       <c r="D50" t="str">
-        <v>BRACNET</v>
+        <v>KS</v>
       </c>
       <c r="E50" t="str">
         <v>DOWN</v>
@@ -1849,18 +1849,18 @@
         <v>OK</v>
       </c>
       <c r="I50" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="str">
-        <v>Konapara</v>
+        <v>Amborkhana</v>
       </c>
       <c r="C51" t="str">
-        <v>192.168.33.1</v>
+        <v>192.168.198.1</v>
       </c>
       <c r="D51" t="str">
         <v>ALAP</v>
@@ -1869,7 +1869,7 @@
         <v>DOWN</v>
       </c>
       <c r="F51" t="str">
-        <v>KS</v>
+        <v>BDCOM</v>
       </c>
       <c r="G51" t="str">
         <v>DOWN</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B52" t="str">
-        <v>Feni</v>
+        <v>Hathazari</v>
       </c>
       <c r="C52" t="str">
-        <v>192.168.136.1</v>
+        <v>192.168.139.1</v>
       </c>
       <c r="D52" t="str">
         <v>BDCOM</v>
@@ -1907,18 +1907,18 @@
         <v>OK</v>
       </c>
       <c r="I52" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="str">
-        <v>Jhalokathi</v>
+        <v>Bhairab</v>
       </c>
       <c r="C53" t="str">
-        <v>192.168.242.1</v>
+        <v>192.168.35.1</v>
       </c>
       <c r="D53" t="str">
         <v>BRACNET</v>
@@ -1927,7 +1927,7 @@
         <v>DOWN</v>
       </c>
       <c r="F53" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G53" t="str">
         <v>DOWN</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B55" t="str">
-        <v>Hazaribagh</v>
+        <v>Jhalokathi</v>
       </c>
       <c r="C55" t="str">
-        <v>192.168.38.1</v>
+        <v>192.168.242.1</v>
       </c>
       <c r="D55" t="str">
         <v>BRACNET</v>
@@ -1985,7 +1985,7 @@
         <v>DOWN</v>
       </c>
       <c r="F55" t="str">
-        <v>KS</v>
+        <v>BDCOM</v>
       </c>
       <c r="G55" t="str">
         <v>DOWN</v>
@@ -2028,22 +2028,22 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B57" t="str">
-        <v>Jatrabari</v>
+        <v>Mongla</v>
       </c>
       <c r="C57" t="str">
-        <v>192.168.34.1</v>
+        <v>192.168.229.1</v>
       </c>
       <c r="D57" t="str">
-        <v>KS</v>
+        <v>BRACNET</v>
       </c>
       <c r="E57" t="str">
         <v>DOWN</v>
       </c>
       <c r="F57" t="str">
-        <v>ALAP</v>
+        <v>SQUARE</v>
       </c>
       <c r="G57" t="str">
         <v>DOWN</v>
@@ -2052,27 +2052,27 @@
         <v>OK</v>
       </c>
       <c r="I57" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" t="str">
-        <v>Manda</v>
+        <v>Nandipara</v>
       </c>
       <c r="C58" t="str">
-        <v>192.168.39.1</v>
+        <v>192.168.40.1</v>
       </c>
       <c r="D58" t="str">
-        <v>ALAP</v>
+        <v>BRACNET</v>
       </c>
       <c r="E58" t="str">
         <v>DOWN</v>
       </c>
       <c r="F58" t="str">
-        <v>KS</v>
+        <v>ALAP</v>
       </c>
       <c r="G58" t="str">
         <v>DOWN</v>
@@ -2081,27 +2081,27 @@
         <v>OK</v>
       </c>
       <c r="I58" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="str">
-        <v>Nandipara</v>
+        <v>Manda</v>
       </c>
       <c r="C59" t="str">
-        <v>192.168.40.1</v>
+        <v>192.168.39.1</v>
       </c>
       <c r="D59" t="str">
-        <v>BRACNET</v>
+        <v>ALAP</v>
       </c>
       <c r="E59" t="str">
         <v>DOWN</v>
       </c>
       <c r="F59" t="str">
-        <v>ALAP</v>
+        <v>KS</v>
       </c>
       <c r="G59" t="str">
         <v>DOWN</v>
@@ -2110,18 +2110,18 @@
         <v>OK</v>
       </c>
       <c r="I59" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" t="str">
-        <v>Mongla</v>
+        <v>Keranigonj</v>
       </c>
       <c r="C60" t="str">
-        <v>192.168.229.1</v>
+        <v>192.168.37.1</v>
       </c>
       <c r="D60" t="str">
         <v>BRACNET</v>
@@ -2130,7 +2130,7 @@
         <v>DOWN</v>
       </c>
       <c r="F60" t="str">
-        <v>SQUARE</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G60" t="str">
         <v>DOWN</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B61" t="str">
-        <v>Keranigonj</v>
+        <v>Hazaribagh</v>
       </c>
       <c r="C61" t="str">
-        <v>192.168.37.1</v>
+        <v>192.168.38.1</v>
       </c>
       <c r="D61" t="str">
         <v>BRACNET</v>
@@ -2159,7 +2159,7 @@
         <v>DOWN</v>
       </c>
       <c r="F61" t="str">
-        <v>AMBER-IT</v>
+        <v>KS</v>
       </c>
       <c r="G61" t="str">
         <v>DOWN</v>
@@ -2173,16 +2173,16 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="str">
-        <v>Patherhat</v>
+        <v>Mothbaria</v>
       </c>
       <c r="C62" t="str">
-        <v>192.168.140.1</v>
+        <v>192.168.243.1</v>
       </c>
       <c r="D62" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="E62" t="str">
         <v>DOWN</v>
@@ -2202,22 +2202,22 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" t="str">
-        <v>Tontor bazar</v>
+        <v>Patherhat</v>
       </c>
       <c r="C63" t="str">
-        <v>192.168.142.1</v>
+        <v>192.168.140.1</v>
       </c>
       <c r="D63" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="E63" t="str">
         <v>DOWN</v>
       </c>
       <c r="F63" t="str">
-        <v>AMBER-IT</v>
+        <v>LINK3</v>
       </c>
       <c r="G63" t="str">
         <v>DOWN</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B64" t="str">
-        <v>Mothbaria</v>
+        <v>Akhaura</v>
       </c>
       <c r="C64" t="str">
-        <v>192.168.243.1</v>
+        <v>192.168.143.1</v>
       </c>
       <c r="D64" t="str">
         <v>BDCOM</v>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" t="str">
-        <v>B.Baria</v>
+        <v>Tontor bazar</v>
       </c>
       <c r="C66" t="str">
-        <v>192.168.141.1</v>
+        <v>192.168.142.1</v>
       </c>
       <c r="D66" t="str">
         <v>BDCOM</v>
@@ -2304,7 +2304,7 @@
         <v>DOWN</v>
       </c>
       <c r="F66" t="str">
-        <v>SQUARE</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G66" t="str">
         <v>DOWN</v>
@@ -2318,22 +2318,22 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="str">
-        <v>Bodorgonj</v>
+        <v>Abdullahpur</v>
       </c>
       <c r="C67" t="str">
-        <v>192.168.165.1</v>
+        <v>192.168.43.1</v>
       </c>
       <c r="D67" t="str">
-        <v>BDCOM</v>
+        <v>IOL</v>
       </c>
       <c r="E67" t="str">
         <v>DOWN</v>
       </c>
       <c r="F67" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="G67" t="str">
         <v>DOWN</v>
@@ -2347,22 +2347,22 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="str">
-        <v>Abdullahpur</v>
+        <v>Bodorgonj</v>
       </c>
       <c r="C68" t="str">
-        <v>192.168.43.1</v>
+        <v>192.168.165.1</v>
       </c>
       <c r="D68" t="str">
-        <v>IOL</v>
+        <v>BDCOM</v>
       </c>
       <c r="E68" t="str">
         <v>DOWN</v>
       </c>
       <c r="F68" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="G68" t="str">
         <v>DOWN</v>
@@ -2376,22 +2376,22 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="str">
-        <v>Bhola</v>
+        <v>Kamrangirchar</v>
       </c>
       <c r="C69" t="str">
-        <v>192.168.244.1</v>
+        <v>192.168.42.1</v>
       </c>
       <c r="D69" t="str">
-        <v>LINK3</v>
+        <v>KS</v>
       </c>
       <c r="E69" t="str">
         <v>DOWN</v>
       </c>
       <c r="F69" t="str">
-        <v>A.D.N</v>
+        <v>BDCOM</v>
       </c>
       <c r="G69" t="str">
         <v>DOWN</v>
@@ -2405,22 +2405,22 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="str">
-        <v>Kamrangirchar</v>
+        <v>Madhabpur</v>
       </c>
       <c r="C70" t="str">
-        <v>192.168.42.1</v>
+        <v>192.168.199.1</v>
       </c>
       <c r="D70" t="str">
-        <v>KS</v>
+        <v>BDCOM</v>
       </c>
       <c r="E70" t="str">
         <v>DOWN</v>
       </c>
       <c r="F70" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="G70" t="str">
         <v>DOWN</v>
@@ -2434,13 +2434,13 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B71" t="str">
-        <v>Akhaura</v>
+        <v>B.Baria</v>
       </c>
       <c r="C71" t="str">
-        <v>192.168.143.1</v>
+        <v>192.168.141.1</v>
       </c>
       <c r="D71" t="str">
         <v>BDCOM</v>
@@ -2449,7 +2449,7 @@
         <v>DOWN</v>
       </c>
       <c r="F71" t="str">
-        <v>LINK3</v>
+        <v>SQUARE</v>
       </c>
       <c r="G71" t="str">
         <v>DOWN</v>
@@ -2463,22 +2463,22 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B72" t="str">
-        <v>Khilkhet</v>
+        <v>Bhola</v>
       </c>
       <c r="C72" t="str">
-        <v>192.168.45.1</v>
+        <v>192.168.244.1</v>
       </c>
       <c r="D72" t="str">
-        <v>ALAP</v>
+        <v>LINK3</v>
       </c>
       <c r="E72" t="str">
         <v>DOWN</v>
       </c>
       <c r="F72" t="str">
-        <v>BDCOM</v>
+        <v>A.D.N</v>
       </c>
       <c r="G72" t="str">
         <v>DOWN</v>
@@ -2487,21 +2487,21 @@
         <v>OK</v>
       </c>
       <c r="I72" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="str">
-        <v>Bondor</v>
+        <v>Khilkhet</v>
       </c>
       <c r="C73" t="str">
-        <v>192.168.44.1</v>
+        <v>192.168.45.1</v>
       </c>
       <c r="D73" t="str">
-        <v>PCL</v>
+        <v>ALAP</v>
       </c>
       <c r="E73" t="str">
         <v>DOWN</v>
@@ -2516,27 +2516,27 @@
         <v>OK</v>
       </c>
       <c r="I73" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B74" t="str">
-        <v>Madhabpur</v>
+        <v>Bondor</v>
       </c>
       <c r="C74" t="str">
-        <v>192.168.199.1</v>
+        <v>192.168.44.1</v>
       </c>
       <c r="D74" t="str">
-        <v>BDCOM</v>
+        <v>PCL</v>
       </c>
       <c r="E74" t="str">
         <v>DOWN</v>
       </c>
       <c r="F74" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="G74" t="str">
         <v>DOWN</v>
@@ -2608,13 +2608,13 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="str">
-        <v>Gazipur</v>
+        <v>South Jatrabari</v>
       </c>
       <c r="C77" t="str">
-        <v>192.168.47.1</v>
+        <v>192.168.48.1</v>
       </c>
       <c r="D77" t="str">
         <v>BDCOM</v>
@@ -2632,27 +2632,27 @@
         <v>OK</v>
       </c>
       <c r="I77" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78" t="str">
-        <v>South Jatrabari</v>
+        <v>Shahzadpur</v>
       </c>
       <c r="C78" t="str">
-        <v>192.168.48.1</v>
+        <v>192.168.167.1</v>
       </c>
       <c r="D78" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="E78" t="str">
         <v>DOWN</v>
       </c>
       <c r="F78" t="str">
-        <v>SQUARE</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G78" t="str">
         <v>DOWN</v>
@@ -2661,18 +2661,18 @@
         <v>OK</v>
       </c>
       <c r="I78" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" t="str">
-        <v>Bashurhat</v>
+        <v>Gazipur</v>
       </c>
       <c r="C79" t="str">
-        <v>192.168.144.1</v>
+        <v>192.168.47.1</v>
       </c>
       <c r="D79" t="str">
         <v>BDCOM</v>
@@ -2681,7 +2681,7 @@
         <v>DOWN</v>
       </c>
       <c r="F79" t="str">
-        <v>BRACNET</v>
+        <v>SQUARE</v>
       </c>
       <c r="G79" t="str">
         <v>DOWN</v>
@@ -2695,22 +2695,22 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" t="str">
-        <v>Kolatia</v>
+        <v>Panchdona</v>
       </c>
       <c r="C80" t="str">
-        <v>192.168.50.1</v>
+        <v>192.168.49.1</v>
       </c>
       <c r="D80" t="str">
-        <v>BRACNET</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="E80" t="str">
         <v>DOWN</v>
       </c>
       <c r="F80" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G80" t="str">
         <v>DOWN</v>
@@ -2719,27 +2719,27 @@
         <v>OK</v>
       </c>
       <c r="I80" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="str">
-        <v>Panchdona</v>
+        <v>Bashurhat</v>
       </c>
       <c r="C81" t="str">
-        <v>192.168.49.1</v>
+        <v>192.168.144.1</v>
       </c>
       <c r="D81" t="str">
-        <v>AMBER-IT</v>
+        <v>BDCOM</v>
       </c>
       <c r="E81" t="str">
         <v>DOWN</v>
       </c>
       <c r="F81" t="str">
-        <v>ALAP</v>
+        <v>BRACNET</v>
       </c>
       <c r="G81" t="str">
         <v>DOWN</v>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B82" t="str">
-        <v>Shahzadpur</v>
+        <v>Ati Bazar</v>
       </c>
       <c r="C82" t="str">
-        <v>192.168.167.1</v>
+        <v>192.168.51.1</v>
       </c>
       <c r="D82" t="str">
         <v>BRACNET</v>
@@ -2768,7 +2768,7 @@
         <v>DOWN</v>
       </c>
       <c r="F82" t="str">
-        <v>AMBER-IT</v>
+        <v>LINK3</v>
       </c>
       <c r="G82" t="str">
         <v>DOWN</v>
@@ -2777,18 +2777,18 @@
         <v>OK</v>
       </c>
       <c r="I82" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B83" t="str">
-        <v>Hajigonj</v>
+        <v>Natunbazar</v>
       </c>
       <c r="C83" t="str">
-        <v>192.168.145.1</v>
+        <v>192.168.54.1</v>
       </c>
       <c r="D83" t="str">
         <v>BRACNET</v>
@@ -2797,7 +2797,7 @@
         <v>DOWN</v>
       </c>
       <c r="F83" t="str">
-        <v>AMBER-IT</v>
+        <v>BDCOM</v>
       </c>
       <c r="G83" t="str">
         <v>DOWN</v>
@@ -2811,13 +2811,13 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B84" t="str">
-        <v>Panthopath</v>
+        <v>Kolatia</v>
       </c>
       <c r="C84" t="str">
-        <v>192.168.52.1</v>
+        <v>192.168.50.1</v>
       </c>
       <c r="D84" t="str">
         <v>BRACNET</v>
@@ -2826,7 +2826,7 @@
         <v>DOWN</v>
       </c>
       <c r="F84" t="str">
-        <v>SQUARE</v>
+        <v>BDCOM</v>
       </c>
       <c r="G84" t="str">
         <v>DOWN</v>
@@ -2840,22 +2840,22 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B85" t="str">
-        <v>Kutibazar</v>
+        <v>Panthopath</v>
       </c>
       <c r="C85" t="str">
-        <v>192.168.147.1</v>
+        <v>192.168.52.1</v>
       </c>
       <c r="D85" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="E85" t="str">
         <v>DOWN</v>
       </c>
       <c r="F85" t="str">
-        <v>AMBER-IT</v>
+        <v>SQUARE</v>
       </c>
       <c r="G85" t="str">
         <v>DOWN</v>
@@ -2864,18 +2864,18 @@
         <v>OK</v>
       </c>
       <c r="I85" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B86" t="str">
-        <v>Natunbazar</v>
+        <v>Hajigonj</v>
       </c>
       <c r="C86" t="str">
-        <v>192.168.54.1</v>
+        <v>192.168.145.1</v>
       </c>
       <c r="D86" t="str">
         <v>BRACNET</v>
@@ -2884,7 +2884,7 @@
         <v>DOWN</v>
       </c>
       <c r="F86" t="str">
-        <v>BDCOM</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G86" t="str">
         <v>DOWN</v>
@@ -2898,22 +2898,22 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B87" t="str">
-        <v>Ati Bazar</v>
+        <v>Kutibazar</v>
       </c>
       <c r="C87" t="str">
-        <v>192.168.51.1</v>
+        <v>192.168.147.1</v>
       </c>
       <c r="D87" t="str">
-        <v>BRACNET</v>
+        <v>BDCOM</v>
       </c>
       <c r="E87" t="str">
         <v>DOWN</v>
       </c>
       <c r="F87" t="str">
-        <v>LINK3</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G87" t="str">
         <v>DOWN</v>
@@ -2922,65 +2922,65 @@
         <v>OK</v>
       </c>
       <c r="I87" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Rahimanogor</v>
+      </c>
+      <c r="C88" t="str">
+        <v>192.168.148.1</v>
+      </c>
+      <c r="D88" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E88" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F88" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G88" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H88" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I88" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B89" t="str">
         <v>Stationroad</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C89" t="str">
         <v>192.168.146.1</v>
       </c>
-      <c r="D88" t="str">
+      <c r="D89" t="str">
         <v>BRACNET</v>
       </c>
-      <c r="E88" t="str">
-        <v>DOWN</v>
-      </c>
-      <c r="F88" t="str">
-        <v>ALAP</v>
-      </c>
-      <c r="G88" t="str">
-        <v>DOWN</v>
-      </c>
-      <c r="H88" t="str">
-        <v>OK</v>
-      </c>
-      <c r="I88" t="str">
-        <v>legacy</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v/>
-      </c>
-      <c r="B89" t="str">
-        <v/>
-      </c>
-      <c r="C89" t="str">
-        <v/>
-      </c>
-      <c r="D89" t="str">
-        <v/>
-      </c>
       <c r="E89" t="str">
-        <v>UNKNOWN</v>
+        <v>DOWN</v>
       </c>
       <c r="F89" t="str">
-        <v/>
+        <v>ALAP</v>
       </c>
       <c r="G89" t="str">
-        <v>UNKNOWN</v>
+        <v>DOWN</v>
       </c>
       <c r="H89" t="str">
         <v>OK</v>
       </c>
       <c r="I89" t="str">
-        <v>UNKNOWN</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="90">
@@ -3014,22 +3014,22 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B91" t="str">
-        <v>Rahimanogor</v>
+        <v>Ruhitpur</v>
       </c>
       <c r="C91" t="str">
-        <v>192.168.148.1</v>
+        <v>192.168.59.1</v>
       </c>
       <c r="D91" t="str">
-        <v>ALAP</v>
+        <v>KS</v>
       </c>
       <c r="E91" t="str">
         <v>DOWN</v>
       </c>
       <c r="F91" t="str">
-        <v>LINK3</v>
+        <v>ALAP</v>
       </c>
       <c r="G91" t="str">
         <v>DOWN</v>
@@ -3043,13 +3043,13 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="str">
-        <v>Kathgora</v>
+        <v>Valanagar</v>
       </c>
       <c r="C92" t="str">
-        <v>192.168.57.1</v>
+        <v>192.168.56.1</v>
       </c>
       <c r="D92" t="str">
         <v>ALAP</v>
@@ -3058,7 +3058,7 @@
         <v>DOWN</v>
       </c>
       <c r="F92" t="str">
-        <v>BDCOM</v>
+        <v>AMBER-IT</v>
       </c>
       <c r="G92" t="str">
         <v>DOWN</v>
@@ -3067,18 +3067,18 @@
         <v>OK</v>
       </c>
       <c r="I92" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="str">
-        <v>Valanagar</v>
+        <v>Kathgora</v>
       </c>
       <c r="C93" t="str">
-        <v>192.168.56.1</v>
+        <v>192.168.57.1</v>
       </c>
       <c r="D93" t="str">
         <v>ALAP</v>
@@ -3087,7 +3087,7 @@
         <v>DOWN</v>
       </c>
       <c r="F93" t="str">
-        <v>AMBER-IT</v>
+        <v>BDCOM</v>
       </c>
       <c r="G93" t="str">
         <v>DOWN</v>
@@ -3096,21 +3096,21 @@
         <v>OK</v>
       </c>
       <c r="I93" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" t="str">
-        <v>Ruhitpur</v>
+        <v>Gollamari</v>
       </c>
       <c r="C94" t="str">
-        <v>192.168.59.1</v>
+        <v>192.168.231.1</v>
       </c>
       <c r="D94" t="str">
-        <v>KS</v>
+        <v>BDCOM</v>
       </c>
       <c r="E94" t="str">
         <v>DOWN</v>
@@ -3130,13 +3130,13 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="str">
-        <v>Halishohor</v>
+        <v>Pabna</v>
       </c>
       <c r="C95" t="str">
-        <v>192.168.149.1</v>
+        <v>192.168.168.1</v>
       </c>
       <c r="D95" t="str">
         <v>BDCOM</v>
@@ -3159,13 +3159,13 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B96" t="str">
-        <v>Pabna</v>
+        <v>Rangpur</v>
       </c>
       <c r="C96" t="str">
-        <v>192.168.168.1</v>
+        <v>192.168.169.1</v>
       </c>
       <c r="D96" t="str">
         <v>BDCOM</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97" t="str">
-        <v>Noyapur</v>
+        <v>Teknaf</v>
       </c>
       <c r="C97" t="str">
-        <v>192.168.60.1</v>
+        <v>192.168.150.1</v>
       </c>
       <c r="D97" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="E97" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F97" t="str">
         <v>BRACNET</v>
-      </c>
-      <c r="E97" t="str">
-        <v>DOWN</v>
-      </c>
-      <c r="F97" t="str">
-        <v>ALAP</v>
       </c>
       <c r="G97" t="str">
         <v>DOWN</v>
@@ -3246,22 +3246,22 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B99" t="str">
-        <v>Bormi</v>
+        <v>Noyapur</v>
       </c>
       <c r="C99" t="str">
-        <v>192.168.62.1</v>
+        <v>192.168.60.1</v>
       </c>
       <c r="D99" t="str">
-        <v>ALAP</v>
+        <v>BRACNET</v>
       </c>
       <c r="E99" t="str">
         <v>DOWN</v>
       </c>
       <c r="F99" t="str">
-        <v>BDCOM</v>
+        <v>ALAP</v>
       </c>
       <c r="G99" t="str">
         <v>DOWN</v>
@@ -3275,13 +3275,13 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B100" t="str">
-        <v>Rangpur</v>
+        <v>Halishohor</v>
       </c>
       <c r="C100" t="str">
-        <v>192.168.169.1</v>
+        <v>192.168.149.1</v>
       </c>
       <c r="D100" t="str">
         <v>BDCOM</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B101" t="str">
-        <v>Gollamari</v>
+        <v>Rampal</v>
       </c>
       <c r="C101" t="str">
-        <v>192.168.231.1</v>
+        <v>192.168.61.1</v>
       </c>
       <c r="D101" t="str">
-        <v>BDCOM</v>
+        <v>BRACNET</v>
       </c>
       <c r="E101" t="str">
         <v>DOWN</v>
@@ -3328,27 +3328,27 @@
         <v>OK</v>
       </c>
       <c r="I101" t="str">
-        <v>legacy</v>
+        <v>sdwan</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B102" t="str">
-        <v>Rampal</v>
+        <v>Bormi</v>
       </c>
       <c r="C102" t="str">
-        <v>192.168.61.1</v>
+        <v>192.168.62.1</v>
       </c>
       <c r="D102" t="str">
-        <v>BRACNET</v>
+        <v>ALAP</v>
       </c>
       <c r="E102" t="str">
         <v>DOWN</v>
       </c>
       <c r="F102" t="str">
-        <v>ALAP</v>
+        <v>BDCOM</v>
       </c>
       <c r="G102" t="str">
         <v>DOWN</v>
@@ -3357,7 +3357,7 @@
         <v>OK</v>
       </c>
       <c r="I102" t="str">
-        <v>sdwan</v>
+        <v>legacy</v>
       </c>
     </row>
     <row r="103">
@@ -3391,65 +3391,3081 @@
     </row>
     <row r="104">
       <c r="A104">
+        <v>105</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Rampura</v>
+      </c>
+      <c r="C104" t="str">
+        <v>192.168.63.1</v>
+      </c>
+      <c r="D104" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E104" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F104" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G104" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H104" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I104" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v/>
+      </c>
+      <c r="B105" t="str">
+        <v/>
+      </c>
+      <c r="C105" t="str">
+        <v/>
+      </c>
+      <c r="D105" t="str">
+        <v/>
+      </c>
+      <c r="E105" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="F105" t="str">
+        <v/>
+      </c>
+      <c r="G105" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="H105" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I105" t="str">
+        <v>UNKNOWN</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Corporate</v>
+      </c>
+      <c r="C106" t="str">
+        <v>192.168.15.1</v>
+      </c>
+      <c r="D106" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E106" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F106" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G106" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H106" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I106" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Moulvibazar, Dhaka</v>
+      </c>
+      <c r="C107" t="str">
+        <v>192.168.12.1</v>
+      </c>
+      <c r="D107" t="str">
+        <v>KS</v>
+      </c>
+      <c r="E107" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F107" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G107" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H107" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I107" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Motijheel</v>
+      </c>
+      <c r="C108" t="str">
+        <v>192.168.11.1</v>
+      </c>
+      <c r="D108" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E108" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F108" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G108" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H108" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I108" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Bogra</v>
+      </c>
+      <c r="C109" t="str">
+        <v>192.168.162.1</v>
+      </c>
+      <c r="D109" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E109" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F109" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G109" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H109" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I109" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>9</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Khatungonj</v>
+      </c>
+      <c r="C110" t="str">
+        <v>192.168.130.1</v>
+      </c>
+      <c r="D110" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E110" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F110" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G110" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H110" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I110" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Rajshahi</v>
+      </c>
+      <c r="C111" t="str">
+        <v>192.168.161.1</v>
+      </c>
+      <c r="D111" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E111" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F111" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G111" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H111" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I111" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>12</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Nawabpur</v>
+      </c>
+      <c r="C112" t="str">
+        <v>192.168.18.1</v>
+      </c>
+      <c r="D112" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E112" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F112" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G112" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H112" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I112" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Laldighirpar</v>
+      </c>
+      <c r="C113" t="str">
+        <v>192.168.193.1</v>
+      </c>
+      <c r="D113" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E113" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F113" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G113" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H113" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I113" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>16</v>
+      </c>
+      <c r="B114" t="str">
+        <v>New Elephant Road</v>
+      </c>
+      <c r="C114" t="str">
+        <v>192.168.16.1</v>
+      </c>
+      <c r="D114" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E114" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Alap</v>
+      </c>
+      <c r="G114" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H114" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I114" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Khulna</v>
+      </c>
+      <c r="C115" t="str">
+        <v>192.168.225.1</v>
+      </c>
+      <c r="D115" t="str">
+        <v xml:space="preserve">BDCOM </v>
+      </c>
+      <c r="E115" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F115" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G115" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H115" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I115" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="B116" t="str">
+        <v>VIP Road</v>
+      </c>
+      <c r="C116" t="str">
+        <v>192.168.14.1</v>
+      </c>
+      <c r="D116" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E116" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F116" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G116" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H116" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I116" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Barisal</v>
+      </c>
+      <c r="C117" t="str">
+        <v>192.168.241.1</v>
+      </c>
+      <c r="D117" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E117" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F117" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G117" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H117" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I117" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Satkhira</v>
+      </c>
+      <c r="C118" t="str">
+        <v>192.168.226.1</v>
+      </c>
+      <c r="D118" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E118" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F118" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G118" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H118" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I118" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>13</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Benapole</v>
+      </c>
+      <c r="C119" t="str">
+        <v>192.168.227.1</v>
+      </c>
+      <c r="D119" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E119" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F119" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G119" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H119" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I119" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Agrabad</v>
+      </c>
+      <c r="C120" t="str">
+        <v>192.168.129.1</v>
+      </c>
+      <c r="D120" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E120" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F120" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G120" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H120" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I120" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Jublee Road</v>
+      </c>
+      <c r="C121" t="str">
+        <v>192.168.131.1</v>
+      </c>
+      <c r="D121" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E121" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F121" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G121" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H121" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I121" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>17</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Uttara</v>
+      </c>
+      <c r="C122" t="str">
+        <v>192.168.17.1</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Bdcom</v>
+      </c>
+      <c r="E122" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Alap</v>
+      </c>
+      <c r="G122" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H122" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I122" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>21</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Mirpur</v>
+      </c>
+      <c r="C123" t="str">
+        <v>192.168.20.1</v>
+      </c>
+      <c r="D123" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E123" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F123" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G123" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H123" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I123" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>19</v>
+      </c>
+      <c r="B124" t="str">
+        <v>North South Road</v>
+      </c>
+      <c r="C124" t="str">
+        <v>192.168.13.1</v>
+      </c>
+      <c r="D124" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E124" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F124" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G124" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H124" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I124" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>20</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Banani</v>
+      </c>
+      <c r="C125" t="str">
+        <v>192.168.19.1</v>
+      </c>
+      <c r="D125" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E125" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F125" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G125" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H125" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I125" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>25</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Sayedpur</v>
+      </c>
+      <c r="C126" t="str">
+        <v>192.168.163.1</v>
+      </c>
+      <c r="D126" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E126" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F126" t="str">
+        <v>AGNI</v>
+      </c>
+      <c r="G126" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H126" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I126" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>24</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Mouchak</v>
+      </c>
+      <c r="C127" t="str">
+        <v>192.168.22.1</v>
+      </c>
+      <c r="D127" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E127" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F127" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G127" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H127" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I127" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>23</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Zindabazar</v>
+      </c>
+      <c r="C128" t="str">
+        <v>192.168.194.1</v>
+      </c>
+      <c r="D128" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E128" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F128" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G128" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H128" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I128" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>22</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Mymensingh</v>
+      </c>
+      <c r="C129" t="str">
+        <v>192.168.32.1</v>
+      </c>
+      <c r="D129" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E129" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F129" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G129" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H129" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I129" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>27</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Moulvibazar, Sylhet</v>
+      </c>
+      <c r="C130" t="str">
+        <v>192.168.196.1</v>
+      </c>
+      <c r="D130" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E130" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F130" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G130" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H130" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I130" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>26</v>
+      </c>
+      <c r="B131" t="str">
+        <v>O.R.Nizam</v>
+      </c>
+      <c r="C131" t="str">
+        <v>192.168.132.1</v>
+      </c>
+      <c r="D131" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E131" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F131" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G131" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H131" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I131" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>28</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Chowmohoni</v>
+      </c>
+      <c r="C132" t="str">
+        <v>192.168.138.1</v>
+      </c>
+      <c r="D132" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E132" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F132" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G132" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H132" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I132" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>29</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Comilla</v>
+      </c>
+      <c r="C133" t="str">
+        <v>192.168.134.1</v>
+      </c>
+      <c r="D133" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E133" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F133" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G133" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H133" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I133" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>31</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Dhanmondi</v>
+      </c>
+      <c r="C134" t="str">
+        <v>192.168.23.1</v>
+      </c>
+      <c r="D134" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E134" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F134" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G134" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H134" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I134" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>30</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Jessore</v>
+      </c>
+      <c r="C135" t="str">
+        <v>192.168.228.1</v>
+      </c>
+      <c r="D135" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E135" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F135" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G135" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H135" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I135" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>32</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Mohadevpur</v>
+      </c>
+      <c r="C136" t="str">
+        <v>192.168.164.1</v>
+      </c>
+      <c r="D136" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E136" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F136" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G136" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H136" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I136" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>34</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Pagla</v>
+      </c>
+      <c r="C137" t="str">
+        <v>192.168.29.1</v>
+      </c>
+      <c r="D137" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="E137" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F137" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G137" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H137" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I137" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>33</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Madhabdi</v>
+      </c>
+      <c r="C138" t="str">
+        <v>192.168.27.1</v>
+      </c>
+      <c r="D138" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E138" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F138" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G138" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H138" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I138" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>35</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Sreemangal</v>
+      </c>
+      <c r="C139" t="str">
+        <v>192.168.197.1</v>
+      </c>
+      <c r="D139" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E139" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F139" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G139" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H139" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I139" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>39</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Companigonj</v>
+      </c>
+      <c r="C140" t="str">
+        <v>192.168.133.1</v>
+      </c>
+      <c r="D140" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E140" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F140" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G140" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H140" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I140" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>42</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Dilkusha</v>
+      </c>
+      <c r="C141" t="str">
+        <v>192.168.26.1</v>
+      </c>
+      <c r="D141" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E141" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F141" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G141" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H141" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I141" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>38</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Narayangonj</v>
+      </c>
+      <c r="C142" t="str">
+        <v>192.168.28.1</v>
+      </c>
+      <c r="D142" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="E142" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F142" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G142" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H142" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I142" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>37</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Mohammadpur</v>
+      </c>
+      <c r="C143" t="str">
+        <v>192.168.24.1</v>
+      </c>
+      <c r="D143" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E143" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F143" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G143" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H143" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I143" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>40</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Gallai</v>
+      </c>
+      <c r="C144" t="str">
+        <v>192.168.135.1</v>
+      </c>
+      <c r="D144" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E144" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F144" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G144" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H144" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I144" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v/>
+      </c>
+      <c r="B145" t="str">
+        <v/>
+      </c>
+      <c r="C145" t="str">
+        <v/>
+      </c>
+      <c r="D145" t="str">
+        <v/>
+      </c>
+      <c r="E145" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="F145" t="str">
+        <v/>
+      </c>
+      <c r="G145" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="H145" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I145" t="str">
+        <v>UNKNOWN</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>43</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Beanibazar</v>
+      </c>
+      <c r="C146" t="str">
+        <v>192.168.195.1</v>
+      </c>
+      <c r="D146" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E146" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F146" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G146" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H146" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I146" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>41</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Islampur</v>
+      </c>
+      <c r="C147" t="str">
+        <v>192.168.25.1</v>
+      </c>
+      <c r="D147" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E147" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F147" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G147" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H147" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I147" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>44</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Kapasia</v>
+      </c>
+      <c r="C148" t="str">
+        <v>192.168.30.1</v>
+      </c>
+      <c r="D148" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E148" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F148" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G148" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H148" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I148" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>45</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Pragati_sarani</v>
+      </c>
+      <c r="C149" t="str">
+        <v>192.168.21.1</v>
+      </c>
+      <c r="D149" t="str">
+        <v>ADN</v>
+      </c>
+      <c r="E149" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F149" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G149" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H149" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I149" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>46</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Feni</v>
+      </c>
+      <c r="C150" t="str">
+        <v>192.168.136.1</v>
+      </c>
+      <c r="D150" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E150" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F150" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G150" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H150" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I150" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>46</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Feni</v>
+      </c>
+      <c r="C151" t="str">
+        <v>192.168.136.1</v>
+      </c>
+      <c r="D151" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E151" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F151" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G151" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H151" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I151" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>49</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Amborkhana</v>
+      </c>
+      <c r="C152" t="str">
+        <v>192.168.198.1</v>
+      </c>
+      <c r="D152" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E152" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F152" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G152" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H152" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I152" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>50</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Konapara</v>
+      </c>
+      <c r="C153" t="str">
+        <v>192.168.33.1</v>
+      </c>
+      <c r="D153" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E153" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F153" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G153" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H153" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I153" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>48</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Hathazari</v>
+      </c>
+      <c r="C154" t="str">
+        <v>192.168.139.1</v>
+      </c>
+      <c r="D154" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E154" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F154" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G154" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H154" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I154" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>47</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Coxsbazar</v>
+      </c>
+      <c r="C155" t="str">
+        <v>192.168.137.1</v>
+      </c>
+      <c r="D155" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E155" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F155" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G155" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H155" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I155" t="str">
+        <v>mikrotik</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>51</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Jatrabari</v>
+      </c>
+      <c r="C156" t="str">
+        <v>192.168.34.1</v>
+      </c>
+      <c r="D156" t="str">
+        <v>KS</v>
+      </c>
+      <c r="E156" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F156" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G156" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H156" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I156" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>55</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Keranigonj</v>
+      </c>
+      <c r="C157" t="str">
+        <v>192.168.37.1</v>
+      </c>
+      <c r="D157" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E157" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F157" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G157" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H157" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I157" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>54</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Gulshan</v>
+      </c>
+      <c r="C158" t="str">
+        <v>192.168.36.1</v>
+      </c>
+      <c r="D158" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E158" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F158" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G158" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H158" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I158" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>58</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Hazaribagh</v>
+      </c>
+      <c r="C159" t="str">
+        <v>192.168.38.1</v>
+      </c>
+      <c r="D159" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E159" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F159" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G159" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H159" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I159" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>52</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Bhairab</v>
+      </c>
+      <c r="C160" t="str">
+        <v>192.168.35.1</v>
+      </c>
+      <c r="D160" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E160" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F160" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G160" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H160" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I160" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>53</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Jhalokathi</v>
+      </c>
+      <c r="C161" t="str">
+        <v>192.168.242.1</v>
+      </c>
+      <c r="D161" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E161" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F161" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G161" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H161" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I161" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>57</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Mongla</v>
+      </c>
+      <c r="C162" t="str">
+        <v>192.168.229.1</v>
+      </c>
+      <c r="D162" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E162" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F162" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G162" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H162" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I162" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>59</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Manda</v>
+      </c>
+      <c r="C163" t="str">
+        <v>192.168.39.1</v>
+      </c>
+      <c r="D163" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E163" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F163" t="str">
+        <v>KS</v>
+      </c>
+      <c r="G163" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H163" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I163" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>56</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Chuknagar</v>
+      </c>
+      <c r="C164" t="str">
+        <v>192.168.230.1</v>
+      </c>
+      <c r="D164" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="E164" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F164" t="str">
+        <v>A.D.N</v>
+      </c>
+      <c r="G164" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H164" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I164" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>60</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Nandipara</v>
+      </c>
+      <c r="C165" t="str">
+        <v>192.168.40.1</v>
+      </c>
+      <c r="D165" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E165" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F165" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G165" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H165" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I165" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>61</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Patherhat</v>
+      </c>
+      <c r="C166" t="str">
+        <v>192.168.140.1</v>
+      </c>
+      <c r="D166" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E166" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F166" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G166" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H166" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I166" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>63</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Tontor bazar</v>
+      </c>
+      <c r="C167" t="str">
+        <v>192.168.142.1</v>
+      </c>
+      <c r="D167" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E167" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F167" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G167" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H167" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I167" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>62</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Mothbaria</v>
+      </c>
+      <c r="C168" t="str">
+        <v>192.168.243.1</v>
+      </c>
+      <c r="D168" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E168" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F168" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G168" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H168" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I168" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>68</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Bhola</v>
+      </c>
+      <c r="C169" t="str">
+        <v>192.168.244.1</v>
+      </c>
+      <c r="D169" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="E169" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F169" t="str">
+        <v>A.D.N</v>
+      </c>
+      <c r="G169" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H169" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I169" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>64</v>
+      </c>
+      <c r="B170" t="str">
+        <v>B.Baria</v>
+      </c>
+      <c r="C170" t="str">
+        <v>192.168.141.1</v>
+      </c>
+      <c r="D170" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E170" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F170" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G170" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H170" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I170" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>65</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Hemayatpur</v>
+      </c>
+      <c r="C171" t="str">
+        <v>192.168.41.1</v>
+      </c>
+      <c r="D171" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E171" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F171" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G171" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H171" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I171" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>66</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Abdullahpur</v>
+      </c>
+      <c r="C172" t="str">
+        <v>192.168.43.1</v>
+      </c>
+      <c r="D172" t="str">
+        <v>IOL</v>
+      </c>
+      <c r="E172" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F172" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G172" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H172" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I172" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>67</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Bodorgonj</v>
+      </c>
+      <c r="C173" t="str">
+        <v>192.168.165.1</v>
+      </c>
+      <c r="D173" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E173" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F173" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G173" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H173" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I173" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>69</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Kamrangirchar</v>
+      </c>
+      <c r="C174" t="str">
+        <v>192.168.42.1</v>
+      </c>
+      <c r="D174" t="str">
+        <v>KS</v>
+      </c>
+      <c r="E174" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F174" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G174" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H174" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I174" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>70</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Madhabpur</v>
+      </c>
+      <c r="C175" t="str">
+        <v>192.168.199.1</v>
+      </c>
+      <c r="D175" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E175" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F175" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G175" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H175" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I175" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>72</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Bondor</v>
+      </c>
+      <c r="C176" t="str">
+        <v>192.168.44.1</v>
+      </c>
+      <c r="D176" t="str">
+        <v>PCL</v>
+      </c>
+      <c r="E176" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F176" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G176" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H176" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I176" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>71</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Akhaura</v>
+      </c>
+      <c r="C177" t="str">
+        <v>192.168.143.1</v>
+      </c>
+      <c r="D177" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E177" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F177" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G177" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H177" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I177" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>74</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Mirpur-10</v>
+      </c>
+      <c r="C178" t="str">
+        <v>192.168.46.1</v>
+      </c>
+      <c r="D178" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E178" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F178" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G178" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H178" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I178" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>75</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Dinajpur</v>
+      </c>
+      <c r="C179" t="str">
+        <v>192.168.166.1</v>
+      </c>
+      <c r="D179" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E179" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F179" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G179" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H179" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I179" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>73</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Khilkhet</v>
+      </c>
+      <c r="C180" t="str">
+        <v>192.168.45.1</v>
+      </c>
+      <c r="D180" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E180" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F180" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G180" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H180" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I180" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>77</v>
+      </c>
+      <c r="B181" t="str">
+        <v>South Jatrabari</v>
+      </c>
+      <c r="C181" t="str">
+        <v>192.168.48.1</v>
+      </c>
+      <c r="D181" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E181" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F181" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G181" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H181" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I181" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>76</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Gazipur</v>
+      </c>
+      <c r="C182" t="str">
+        <v>192.168.47.1</v>
+      </c>
+      <c r="D182" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E182" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F182" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G182" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H182" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I182" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>78</v>
+      </c>
+      <c r="B183" t="str">
+        <v>Bashurhat</v>
+      </c>
+      <c r="C183" t="str">
+        <v>192.168.144.1</v>
+      </c>
+      <c r="D183" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E183" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F183" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="G183" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H183" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I183" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>79</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Panchdona</v>
+      </c>
+      <c r="C184" t="str">
+        <v>192.168.49.1</v>
+      </c>
+      <c r="D184" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="E184" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F184" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G184" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H184" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I184" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>80</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Shahzadpur</v>
+      </c>
+      <c r="C185" t="str">
+        <v>192.168.167.1</v>
+      </c>
+      <c r="D185" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E185" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F185" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G185" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H185" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I185" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v/>
+      </c>
+      <c r="B186" t="str">
+        <v/>
+      </c>
+      <c r="C186" t="str">
+        <v/>
+      </c>
+      <c r="D186" t="str">
+        <v/>
+      </c>
+      <c r="E186" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="F186" t="str">
+        <v/>
+      </c>
+      <c r="G186" t="str">
+        <v>UNKNOWN</v>
+      </c>
+      <c r="H186" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I186" t="str">
+        <v>UNKNOWN</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>82</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Hajigonj</v>
+      </c>
+      <c r="C187" t="str">
+        <v>192.168.145.1</v>
+      </c>
+      <c r="D187" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E187" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F187" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G187" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H187" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I187" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>88</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Stationroad</v>
+      </c>
+      <c r="C188" t="str">
+        <v>192.168.146.1</v>
+      </c>
+      <c r="D188" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E188" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F188" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G188" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H188" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I188" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>81</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Kolatia</v>
+      </c>
+      <c r="C189" t="str">
+        <v>192.168.50.1</v>
+      </c>
+      <c r="D189" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E189" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F189" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G189" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H189" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I189" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>83</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Ati Bazar</v>
+      </c>
+      <c r="C190" t="str">
+        <v>192.168.51.1</v>
+      </c>
+      <c r="D190" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E190" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F190" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G190" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H190" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I190" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>90</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Rahimanogor</v>
+      </c>
+      <c r="C191" t="str">
+        <v>192.168.148.1</v>
+      </c>
+      <c r="D191" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E191" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F191" t="str">
+        <v>LINK3</v>
+      </c>
+      <c r="G191" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H191" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I191" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>87</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Kutibazar</v>
+      </c>
+      <c r="C192" t="str">
+        <v>192.168.147.1</v>
+      </c>
+      <c r="D192" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E192" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F192" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G192" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H192" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I192" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>84</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Panthopath</v>
+      </c>
+      <c r="C193" t="str">
+        <v>192.168.52.1</v>
+      </c>
+      <c r="D193" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E193" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F193" t="str">
+        <v>SQUARE</v>
+      </c>
+      <c r="G193" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H193" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I193" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>86</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Natunbazar</v>
+      </c>
+      <c r="C194" t="str">
+        <v>192.168.54.1</v>
+      </c>
+      <c r="D194" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E194" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F194" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G194" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H194" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I194" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>89</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Shymoli</v>
+      </c>
+      <c r="C195" t="str">
+        <v>192.168.55.1</v>
+      </c>
+      <c r="D195" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E195" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F195" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G195" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H195" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I195" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>91</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Valanagar</v>
+      </c>
+      <c r="C196" t="str">
+        <v>192.168.56.1</v>
+      </c>
+      <c r="D196" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E196" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F196" t="str">
+        <v>AMBER-IT</v>
+      </c>
+      <c r="G196" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H196" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I196" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>93</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Ruhitpur</v>
+      </c>
+      <c r="C197" t="str">
+        <v>192.168.59.1</v>
+      </c>
+      <c r="D197" t="str">
+        <v>KS</v>
+      </c>
+      <c r="E197" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F197" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G197" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H197" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I197" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>92</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Kathgora</v>
+      </c>
+      <c r="C198" t="str">
+        <v>192.168.57.1</v>
+      </c>
+      <c r="D198" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E198" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F198" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G198" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H198" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I198" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>94</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Pabna</v>
+      </c>
+      <c r="C199" t="str">
+        <v>192.168.168.1</v>
+      </c>
+      <c r="D199" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E199" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F199" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G199" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H199" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I199" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>96</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Gollamari</v>
+      </c>
+      <c r="C200" t="str">
+        <v>192.168.231.1</v>
+      </c>
+      <c r="D200" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E200" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F200" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G200" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H200" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I200" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>97</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Rangpur</v>
+      </c>
+      <c r="C201" t="str">
+        <v>192.168.169.1</v>
+      </c>
+      <c r="D201" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E201" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F201" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G201" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H201" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I201" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>95</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Halishohor</v>
+      </c>
+      <c r="C202" t="str">
+        <v>192.168.149.1</v>
+      </c>
+      <c r="D202" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E202" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F202" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G202" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H202" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I202" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>98</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Uttara Janapath</v>
+      </c>
+      <c r="C203" t="str">
+        <v>192.168.58.1</v>
+      </c>
+      <c r="D203" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E203" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F203" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G203" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H203" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I203" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>99</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Noyapur</v>
+      </c>
+      <c r="C204" t="str">
+        <v>192.168.60.1</v>
+      </c>
+      <c r="D204" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E204" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F204" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G204" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H204" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I204" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>100</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Rampal</v>
+      </c>
+      <c r="C205" t="str">
+        <v>192.168.61.1</v>
+      </c>
+      <c r="D205" t="str">
+        <v>BRACNET</v>
+      </c>
+      <c r="E205" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F205" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G205" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H205" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I205" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>103</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Bormi</v>
+      </c>
+      <c r="C206" t="str">
+        <v>192.168.62.1</v>
+      </c>
+      <c r="D206" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="E206" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F206" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="G206" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H206" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I206" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
         <v>102</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B207" t="str">
         <v>Teknaf</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C207" t="str">
         <v>192.168.150.1</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D207" t="str">
         <v>AMBER-IT</v>
       </c>
-      <c r="E104" t="str">
-        <v>DOWN</v>
-      </c>
-      <c r="F104" t="str">
+      <c r="E207" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F207" t="str">
         <v>BRACNET</v>
       </c>
-      <c r="G104" t="str">
-        <v>DOWN</v>
-      </c>
-      <c r="H104" t="str">
-        <v>OK</v>
-      </c>
-      <c r="I104" t="str">
-        <v>legacy</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
+      <c r="G207" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H207" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I207" t="str">
+        <v>legacy</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>104</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Barura</v>
+      </c>
+      <c r="C208" t="str">
+        <v>192.168.151.1</v>
+      </c>
+      <c r="D208" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E208" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F208" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G208" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H208" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I208" t="str">
+        <v>sdwan</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
         <v>105</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B209" t="str">
         <v>Rampura</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C209" t="str">
         <v>192.168.63.1</v>
       </c>
-      <c r="D105" t="str">
-        <v>BDCOM</v>
-      </c>
-      <c r="E105" t="str">
-        <v>DOWN</v>
-      </c>
-      <c r="F105" t="str">
-        <v>ALAP</v>
-      </c>
-      <c r="G105" t="str">
-        <v>DOWN</v>
-      </c>
-      <c r="H105" t="str">
-        <v>OK</v>
-      </c>
-      <c r="I105" t="str">
+      <c r="D209" t="str">
+        <v>BDCOM</v>
+      </c>
+      <c r="E209" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="F209" t="str">
+        <v>ALAP</v>
+      </c>
+      <c r="G209" t="str">
+        <v>DOWN</v>
+      </c>
+      <c r="H209" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I209" t="str">
         <v>sdwan</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I105"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I209"/>
   </ignoredErrors>
 </worksheet>
 </file>